--- a/Basic Analysis/Basic Data Aggregation/IF AND OR practical exercise.xlsx
+++ b/Basic Analysis/Basic Data Aggregation/IF AND OR practical exercise.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Friedturnip\Desktop\Data Foundations BUILD\Aggregating Data\Logical Operators\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sites\Data_Foundations_WithYouWithMe\Basic Analysis\Basic Data Aggregation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2E652B9-C9D6-4399-9A99-F04884BB9A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0BC3F6-073C-4295-B3BD-A67429E8F775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="28590" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA SANFRAN" sheetId="3" r:id="rId1"/>
@@ -19,22 +19,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DATA SANFRAN'!$D$1:$D$248</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="214">
   <si>
     <t>Id</t>
   </si>
@@ -673,6 +662,9 @@
   </si>
   <si>
     <t>High Salary+ High bonus</t>
+  </si>
+  <si>
+    <t>BP &gt; 100k OR Bonus &gt; 35k</t>
   </si>
 </sst>
 </file>
@@ -682,7 +674,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -712,6 +704,11 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -747,59 +744,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD8D8D8"/>
-          <bgColor rgb="FFD8D8D8"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <b val="0"/>
@@ -816,24 +794,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -872,6 +833,24 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -986,6 +965,49 @@
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD8D8D8"/>
+          <bgColor rgb="FFD8D8D8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1003,7 +1025,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>609599</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -1086,7 +1108,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -1189,7 +1211,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1301,17 +1323,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5EBDC1-E78D-4516-A571-79177CBE245A}" name="Table1" displayName="Table1" ref="B1:J196" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{7C8E5C1F-D87F-487E-83B7-0698C7DEF2F8}" name="EmployeeName" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{0CB6E688-87B3-4902-BC17-3225D34BDEBA}" name="JobTitle" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{D2379138-3E55-4513-9805-C6688462F3F9}" name="BasePay" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{738B2354-00AB-4765-AB5F-D3449271ED64}" name="BASEPAY RATING" dataDxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5EBDC1-E78D-4516-A571-79177CBE245A}" name="Table1" displayName="Table1" ref="B1:K196" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{7C8E5C1F-D87F-487E-83B7-0698C7DEF2F8}" name="EmployeeName" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{0CB6E688-87B3-4902-BC17-3225D34BDEBA}" name="JobTitle" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{D2379138-3E55-4513-9805-C6688462F3F9}" name="BasePay" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{738B2354-00AB-4765-AB5F-D3449271ED64}" name="BASEPAY RATING" dataDxfId="2">
+      <calculatedColumnFormula>IF(D2&gt;=V$4,"HIGH","LOW")</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="5" xr3:uid="{16762EB3-4B03-4AE0-84A1-53FD30338978}" name="Overtime" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{FA3B1EDC-6482-4A7D-873D-381AFEA6BDAE}" name="High Salary+ High bonus" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{D0B795F6-AE56-4E0B-A3FD-C6C16C53A219}" name="Benefits" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{1BD2948E-8AEB-404E-A6DF-9F9A8F59E9B1}" name="TotalPay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{3AA8B376-1A0E-4F3E-AEAE-979835E39631}" name="Status" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{FA3B1EDC-6482-4A7D-873D-381AFEA6BDAE}" name="High Salary+ High bonus" dataDxfId="1">
+      <calculatedColumnFormula>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{D0B795F6-AE56-4E0B-A3FD-C6C16C53A219}" name="Benefits" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{1BD2948E-8AEB-404E-A6DF-9F9A8F59E9B1}" name="TotalPay" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{3AA8B376-1A0E-4F3E-AEAE-979835E39631}" name="Status" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{89FFED63-E2A9-4EF6-9EC0-D2C4B62978B6}" name="BP &gt; 100k OR Bonus &gt; 35k" dataDxfId="0">
+      <calculatedColumnFormula>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1609,10 +1638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45DE869-74BF-478F-B4AC-3850DA068F41}">
-  <dimension ref="A1:U248"/>
+  <dimension ref="A1:V248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="K91" sqref="K91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1627,9 +1656,10 @@
     <col min="8" max="8" width="11.28515625" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" customWidth="1"/>
+    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1660,8 +1690,11 @@
       <c r="J1" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K1" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>118056</v>
       </c>
@@ -1674,11 +1707,17 @@
       <c r="D2" s="4">
         <v>118307.05</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4" t="str">
+        <f>IF(D2&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F2" s="4">
         <v>0</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H2" s="4">
         <v>37628</v>
       </c>
@@ -1688,8 +1727,12 @@
       <c r="J2" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="K2" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>117890</v>
       </c>
@@ -1702,11 +1745,17 @@
       <c r="D3" s="4">
         <v>115450.01</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="str">
+        <f>IF(D3&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F3" s="4">
         <v>0</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H3" s="4">
         <v>38522.47</v>
       </c>
@@ -1716,11 +1765,15 @@
       <c r="J3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="K3" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>118334</v>
       </c>
@@ -1733,11 +1786,17 @@
       <c r="D4" s="4">
         <v>113338.04</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="str">
+        <f>IF(D4&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F4" s="4">
         <v>0</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H4" s="4">
         <v>38075.269999999997</v>
       </c>
@@ -1747,12 +1806,19 @@
       <c r="J4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="K4" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+      <c r="T4" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="U4" s="7"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V4" s="7">
+        <f>AVERAGE(Table1[BasePay])</f>
+        <v>87331.576820512782</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>118762</v>
       </c>
@@ -1765,11 +1831,17 @@
       <c r="D5" s="4">
         <v>113338.04</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="str">
+        <f>IF(D5&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F5" s="4">
         <v>0</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H5" s="4">
         <v>38075.269999999997</v>
       </c>
@@ -1779,8 +1851,12 @@
       <c r="J5" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K5" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>118761</v>
       </c>
@@ -1793,11 +1869,17 @@
       <c r="D6" s="4">
         <v>113338</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="str">
+        <f>IF(D6&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F6" s="4">
         <v>0</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H6" s="4">
         <v>38075.26</v>
       </c>
@@ -1807,8 +1889,12 @@
       <c r="J6" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K6" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>118763</v>
       </c>
@@ -1821,11 +1907,17 @@
       <c r="D7" s="4">
         <v>110700.05</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4" t="str">
+        <f>IF(D7&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F7" s="4">
         <v>0</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H7" s="4">
         <v>37512.199999999997</v>
       </c>
@@ -1835,8 +1927,12 @@
       <c r="J7" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K7" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>119253</v>
       </c>
@@ -1849,11 +1945,17 @@
       <c r="D8" s="4">
         <v>109960.14</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4" t="str">
+        <f>IF(D8&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F8" s="4">
         <v>0</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H8" s="4">
         <v>37352.239999999998</v>
       </c>
@@ -1863,8 +1965,12 @@
       <c r="J8" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K8" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>119380</v>
       </c>
@@ -1877,11 +1983,17 @@
       <c r="D9" s="4">
         <v>109960.09</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4" t="str">
+        <f>IF(D9&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F9" s="4">
         <v>0</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H9" s="4">
         <v>37349.85</v>
       </c>
@@ -1891,8 +2003,12 @@
       <c r="J9" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K9" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>119383</v>
       </c>
@@ -1905,11 +2021,17 @@
       <c r="D10" s="4">
         <v>109960.09</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4" t="str">
+        <f>IF(D10&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F10" s="4">
         <v>0</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H10" s="4">
         <v>37351.620000000003</v>
       </c>
@@ -1919,8 +2041,12 @@
       <c r="J10" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="K10" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>119381</v>
       </c>
@@ -1933,11 +2059,17 @@
       <c r="D11" s="4">
         <v>109960.08</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4" t="str">
+        <f>IF(D11&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F11" s="4">
         <v>0</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H11" s="4">
         <v>37349.83</v>
       </c>
@@ -1947,11 +2079,15 @@
       <c r="J11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="K11" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+      <c r="N11" s="5" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>119385</v>
       </c>
@@ -1964,11 +2100,17 @@
       <c r="D12" s="4">
         <v>109960.07</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4" t="str">
+        <f>IF(D12&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F12" s="4">
         <v>0</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H12" s="4">
         <v>37636.31</v>
       </c>
@@ -1978,9 +2120,13 @@
       <c r="J12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S12" s="6"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K12" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+      <c r="T12" s="6"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>119352</v>
       </c>
@@ -1993,11 +2139,17 @@
       <c r="D13" s="4">
         <v>109960.06</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4" t="str">
+        <f>IF(D13&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F13" s="4">
         <v>0</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H13" s="4">
         <v>37349.839999999997</v>
       </c>
@@ -2007,8 +2159,12 @@
       <c r="J13" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K13" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>119386</v>
       </c>
@@ -2021,11 +2177,17 @@
       <c r="D14" s="4">
         <v>109960.05</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="4" t="str">
+        <f>IF(D14&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F14" s="4">
         <v>0</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H14" s="4">
         <v>37349.839999999997</v>
       </c>
@@ -2035,8 +2197,12 @@
       <c r="J14" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K14" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>119387</v>
       </c>
@@ -2049,11 +2215,17 @@
       <c r="D15" s="4">
         <v>109960.04</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="4" t="str">
+        <f>IF(D15&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F15" s="4">
         <v>0</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H15" s="4">
         <v>35847.440000000002</v>
       </c>
@@ -2063,8 +2235,12 @@
       <c r="J15" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K15" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>119603</v>
       </c>
@@ -2077,11 +2253,17 @@
       <c r="D16" s="4">
         <v>109960.04</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="4" t="str">
+        <f>IF(D16&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F16" s="4">
         <v>0</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H16" s="4">
         <v>37349.82</v>
       </c>
@@ -2091,8 +2273,12 @@
       <c r="J16" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K16" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>119392</v>
       </c>
@@ -2105,11 +2291,17 @@
       <c r="D17" s="4">
         <v>109960.04</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="4" t="str">
+        <f>IF(D17&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F17" s="4">
         <v>0</v>
       </c>
-      <c r="G17" s="4"/>
+      <c r="G17" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H17" s="4">
         <v>37349.82</v>
       </c>
@@ -2119,8 +2311,12 @@
       <c r="J17" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="K17" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>119390</v>
       </c>
@@ -2133,11 +2329,17 @@
       <c r="D18" s="4">
         <v>109960.04</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="4" t="str">
+        <f>IF(D18&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F18" s="4">
         <v>0</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H18" s="4">
         <v>37349.839999999997</v>
       </c>
@@ -2147,11 +2349,15 @@
       <c r="J18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="K18" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+      <c r="N18" s="5" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>119388</v>
       </c>
@@ -2164,11 +2370,17 @@
       <c r="D19" s="4">
         <v>109960.03</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="4" t="str">
+        <f>IF(D19&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F19" s="4">
         <v>0</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H19" s="4">
         <v>37349.83</v>
       </c>
@@ -2178,8 +2390,12 @@
       <c r="J19" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K19" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>119391</v>
       </c>
@@ -2192,11 +2408,17 @@
       <c r="D20" s="4">
         <v>109960.03</v>
       </c>
-      <c r="E20" s="4"/>
+      <c r="E20" s="4" t="str">
+        <f>IF(D20&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F20" s="4">
         <v>0</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="G20" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H20" s="4">
         <v>37349.83</v>
       </c>
@@ -2206,8 +2428,12 @@
       <c r="J20" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K20" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>119389</v>
       </c>
@@ -2220,11 +2446,17 @@
       <c r="D21" s="4">
         <v>109960.02</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="E21" s="4" t="str">
+        <f>IF(D21&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F21" s="4">
         <v>0</v>
       </c>
-      <c r="G21" s="4"/>
+      <c r="G21" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H21" s="4">
         <v>37349.82</v>
       </c>
@@ -2234,8 +2466,12 @@
       <c r="J21" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K21" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>119401</v>
       </c>
@@ -2248,11 +2484,17 @@
       <c r="D22" s="4">
         <v>109960.02</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="4" t="str">
+        <f>IF(D22&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F22" s="4">
         <v>0</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H22" s="4">
         <v>37349.82</v>
       </c>
@@ -2262,8 +2504,12 @@
       <c r="J22" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K22" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>119400</v>
       </c>
@@ -2276,11 +2522,17 @@
       <c r="D23" s="4">
         <v>109960.02</v>
       </c>
-      <c r="E23" s="4"/>
+      <c r="E23" s="4" t="str">
+        <f>IF(D23&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F23" s="4">
         <v>0</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H23" s="4">
         <v>37349.82</v>
       </c>
@@ -2290,8 +2542,12 @@
       <c r="J23" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K23" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>119399</v>
       </c>
@@ -2304,11 +2560,17 @@
       <c r="D24" s="4">
         <v>109960.02</v>
       </c>
-      <c r="E24" s="4"/>
+      <c r="E24" s="4" t="str">
+        <f>IF(D24&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F24" s="4">
         <v>0</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H24" s="4">
         <v>37349.82</v>
       </c>
@@ -2318,8 +2580,12 @@
       <c r="J24" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K24" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>119396</v>
       </c>
@@ -2332,11 +2598,17 @@
       <c r="D25" s="4">
         <v>109960.02</v>
       </c>
-      <c r="E25" s="4"/>
+      <c r="E25" s="4" t="str">
+        <f>IF(D25&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F25" s="4">
         <v>0</v>
       </c>
-      <c r="G25" s="4"/>
+      <c r="G25" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H25" s="4">
         <v>37349.82</v>
       </c>
@@ -2346,8 +2618,12 @@
       <c r="J25" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K25" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>119395</v>
       </c>
@@ -2360,11 +2636,17 @@
       <c r="D26" s="4">
         <v>109960.02</v>
       </c>
-      <c r="E26" s="4"/>
+      <c r="E26" s="4" t="str">
+        <f>IF(D26&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F26" s="4">
         <v>0</v>
       </c>
-      <c r="G26" s="4"/>
+      <c r="G26" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H26" s="4">
         <v>37349.83</v>
       </c>
@@ -2374,8 +2656,12 @@
       <c r="J26" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K26" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>119394</v>
       </c>
@@ -2388,11 +2674,17 @@
       <c r="D27" s="4">
         <v>109960.02</v>
       </c>
-      <c r="E27" s="4"/>
+      <c r="E27" s="4" t="str">
+        <f>IF(D27&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F27" s="4">
         <v>0</v>
       </c>
-      <c r="G27" s="4"/>
+      <c r="G27" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H27" s="4">
         <v>37349.83</v>
       </c>
@@ -2402,8 +2694,12 @@
       <c r="J27" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K27" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>119393</v>
       </c>
@@ -2416,11 +2712,17 @@
       <c r="D28" s="4">
         <v>109960.01</v>
       </c>
-      <c r="E28" s="4"/>
+      <c r="E28" s="4" t="str">
+        <f>IF(D28&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F28" s="4">
         <v>0</v>
       </c>
-      <c r="G28" s="4"/>
+      <c r="G28" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H28" s="4">
         <v>37349.82</v>
       </c>
@@ -2430,8 +2732,12 @@
       <c r="J28" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K28" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>119402</v>
       </c>
@@ -2444,11 +2750,17 @@
       <c r="D29" s="4">
         <v>109960.01</v>
       </c>
-      <c r="E29" s="4"/>
+      <c r="E29" s="4" t="str">
+        <f>IF(D29&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F29" s="4">
         <v>0</v>
       </c>
-      <c r="G29" s="4"/>
+      <c r="G29" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H29" s="4">
         <v>37349.83</v>
       </c>
@@ -2458,8 +2770,12 @@
       <c r="J29" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K29" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>119398</v>
       </c>
@@ -2472,11 +2788,17 @@
       <c r="D30" s="4">
         <v>109960.01</v>
       </c>
-      <c r="E30" s="4"/>
+      <c r="E30" s="4" t="str">
+        <f>IF(D30&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F30" s="4">
         <v>0</v>
       </c>
-      <c r="G30" s="4"/>
+      <c r="G30" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H30" s="4">
         <v>37349.83</v>
       </c>
@@ -2486,8 +2808,12 @@
       <c r="J30" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K30" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>119397</v>
       </c>
@@ -2500,11 +2826,17 @@
       <c r="D31" s="4">
         <v>109960</v>
       </c>
-      <c r="E31" s="4"/>
+      <c r="E31" s="4" t="str">
+        <f>IF(D31&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F31" s="4">
         <v>0</v>
       </c>
-      <c r="G31" s="4"/>
+      <c r="G31" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H31" s="4">
         <v>37349.82</v>
       </c>
@@ -2514,8 +2846,12 @@
       <c r="J31" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K31" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>119403</v>
       </c>
@@ -2528,11 +2864,17 @@
       <c r="D32" s="4">
         <v>107941.43</v>
       </c>
-      <c r="E32" s="4"/>
+      <c r="E32" s="4" t="str">
+        <f>IF(D32&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F32" s="4">
         <v>0</v>
       </c>
-      <c r="G32" s="4"/>
+      <c r="G32" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H32" s="4">
         <v>36665.199999999997</v>
       </c>
@@ -2542,8 +2884,12 @@
       <c r="J32" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>119781</v>
       </c>
@@ -2556,11 +2902,17 @@
       <c r="D33" s="4">
         <v>107472.69</v>
       </c>
-      <c r="E33" s="4"/>
+      <c r="E33" s="4" t="str">
+        <f>IF(D33&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F33" s="4">
         <v>0</v>
       </c>
-      <c r="G33" s="4"/>
+      <c r="G33" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H33" s="4">
         <v>36880.49</v>
       </c>
@@ -2570,8 +2922,12 @@
       <c r="J33" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>119823</v>
       </c>
@@ -2584,11 +2940,17 @@
       <c r="D34" s="4">
         <v>103935.06</v>
       </c>
-      <c r="E34" s="4"/>
+      <c r="E34" s="4" t="str">
+        <f>IF(D34&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F34" s="4">
         <v>0</v>
       </c>
-      <c r="G34" s="4"/>
+      <c r="G34" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H34" s="4">
         <v>36581.870000000003</v>
       </c>
@@ -2598,8 +2960,12 @@
       <c r="J34" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>120364</v>
       </c>
@@ -2612,11 +2978,17 @@
       <c r="D35" s="4">
         <v>103856.6</v>
       </c>
-      <c r="E35" s="4"/>
+      <c r="E35" s="4" t="str">
+        <f>IF(D35&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F35" s="4">
         <v>0</v>
       </c>
-      <c r="G35" s="4"/>
+      <c r="G35" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H35" s="4">
         <v>37106.160000000003</v>
       </c>
@@ -2626,8 +2998,12 @@
       <c r="J35" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>119957</v>
       </c>
@@ -2640,11 +3016,17 @@
       <c r="D36" s="4">
         <v>103715.54</v>
       </c>
-      <c r="E36" s="4"/>
+      <c r="E36" s="4" t="str">
+        <f>IF(D36&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F36" s="4">
         <v>0</v>
       </c>
-      <c r="G36" s="4"/>
+      <c r="G36" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H36" s="4">
         <v>35249.93</v>
       </c>
@@ -2654,8 +3036,12 @@
       <c r="J36" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>120667</v>
       </c>
@@ -2668,11 +3054,17 @@
       <c r="D37" s="4">
         <v>103001.91</v>
       </c>
-      <c r="E37" s="4"/>
+      <c r="E37" s="4" t="str">
+        <f>IF(D37&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F37" s="4">
         <v>620.54999999999995</v>
       </c>
-      <c r="G37" s="4"/>
+      <c r="G37" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H37" s="4">
         <v>36382.92</v>
       </c>
@@ -2682,8 +3074,12 @@
       <c r="J37" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>120440</v>
       </c>
@@ -2696,11 +3092,17 @@
       <c r="D38" s="4">
         <v>102145.02</v>
       </c>
-      <c r="E38" s="4"/>
+      <c r="E38" s="4" t="str">
+        <f>IF(D38&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F38" s="4">
         <v>0</v>
       </c>
-      <c r="G38" s="4"/>
+      <c r="G38" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H38" s="4">
         <v>36200.26</v>
       </c>
@@ -2710,8 +3112,12 @@
       <c r="J38" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>120781</v>
       </c>
@@ -2724,11 +3130,17 @@
       <c r="D39" s="4">
         <v>102142.43</v>
       </c>
-      <c r="E39" s="4"/>
+      <c r="E39" s="4" t="str">
+        <f>IF(D39&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F39" s="4">
         <v>0</v>
       </c>
-      <c r="G39" s="4"/>
+      <c r="G39" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H39" s="4">
         <v>36199.68</v>
       </c>
@@ -2738,8 +3150,12 @@
       <c r="J39" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>120783</v>
       </c>
@@ -2752,11 +3168,17 @@
       <c r="D40" s="4">
         <v>101888.02</v>
       </c>
-      <c r="E40" s="4"/>
+      <c r="E40" s="4" t="str">
+        <f>IF(D40&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F40" s="4">
         <v>0</v>
       </c>
-      <c r="G40" s="4"/>
+      <c r="G40" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H40" s="4">
         <v>36145.440000000002</v>
       </c>
@@ -2766,8 +3188,12 @@
       <c r="J40" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>120850</v>
       </c>
@@ -2780,11 +3206,17 @@
       <c r="D41" s="4">
         <v>101888.01</v>
       </c>
-      <c r="E41" s="4"/>
+      <c r="E41" s="4" t="str">
+        <f>IF(D41&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F41" s="4">
         <v>0</v>
       </c>
-      <c r="G41" s="4"/>
+      <c r="G41" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H41" s="4">
         <v>36145.440000000002</v>
       </c>
@@ -2794,8 +3226,12 @@
       <c r="J41" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>120851</v>
       </c>
@@ -2808,11 +3244,17 @@
       <c r="D42" s="4">
         <v>100862.73</v>
       </c>
-      <c r="E42" s="4"/>
+      <c r="E42" s="4" t="str">
+        <f>IF(D42&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F42" s="4">
         <v>0</v>
       </c>
-      <c r="G42" s="4"/>
+      <c r="G42" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H42" s="4">
         <v>35912.629999999997</v>
       </c>
@@ -2822,8 +3264,12 @@
       <c r="J42" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>121082</v>
       </c>
@@ -2836,11 +3282,17 @@
       <c r="D43" s="4">
         <v>100862.71</v>
       </c>
-      <c r="E43" s="4"/>
+      <c r="E43" s="4" t="str">
+        <f>IF(D43&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F43" s="4">
         <v>0</v>
       </c>
-      <c r="G43" s="4"/>
+      <c r="G43" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H43" s="4">
         <v>24562.639999999999</v>
       </c>
@@ -2850,8 +3302,12 @@
       <c r="J43" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>123388</v>
       </c>
@@ -2864,11 +3320,17 @@
       <c r="D44" s="4">
         <v>99733.26</v>
       </c>
-      <c r="E44" s="4"/>
+      <c r="E44" s="4" t="str">
+        <f>IF(D44&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F44" s="4">
         <v>0</v>
       </c>
-      <c r="G44" s="4"/>
+      <c r="G44" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H44" s="4">
         <v>35659.33</v>
       </c>
@@ -2878,8 +3340,12 @@
       <c r="J44" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>121310</v>
       </c>
@@ -2892,11 +3358,17 @@
       <c r="D45" s="4">
         <v>99733.06</v>
       </c>
-      <c r="E45" s="4"/>
+      <c r="E45" s="4" t="str">
+        <f>IF(D45&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F45" s="4">
         <v>0</v>
       </c>
-      <c r="G45" s="4"/>
+      <c r="G45" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H45" s="4">
         <v>35659.33</v>
       </c>
@@ -2906,8 +3378,12 @@
       <c r="J45" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>121311</v>
       </c>
@@ -2920,11 +3396,17 @@
       <c r="D46" s="4">
         <v>98990.01</v>
       </c>
-      <c r="E46" s="4"/>
+      <c r="E46" s="4" t="str">
+        <f>IF(D46&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F46" s="4">
         <v>0</v>
       </c>
-      <c r="G46" s="4"/>
+      <c r="G46" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H46" s="4">
         <v>35500.959999999999</v>
       </c>
@@ -2934,8 +3416,12 @@
       <c r="J46" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>121479</v>
       </c>
@@ -2948,11 +3434,17 @@
       <c r="D47" s="4">
         <v>97533.04</v>
       </c>
-      <c r="E47" s="4"/>
+      <c r="E47" s="4" t="str">
+        <f>IF(D47&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F47" s="4">
         <v>0</v>
       </c>
-      <c r="G47" s="4"/>
+      <c r="G47" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H47" s="4">
         <v>36176.14</v>
       </c>
@@ -2962,8 +3454,12 @@
       <c r="J47" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>121697</v>
       </c>
@@ -2976,11 +3472,17 @@
       <c r="D48" s="4">
         <v>97445.71</v>
       </c>
-      <c r="E48" s="4"/>
+      <c r="E48" s="4" t="str">
+        <f>IF(D48&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F48" s="4">
         <v>0</v>
       </c>
-      <c r="G48" s="4"/>
+      <c r="G48" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H48" s="4">
         <v>35170.74</v>
       </c>
@@ -2990,8 +3492,12 @@
       <c r="J48" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>121918</v>
       </c>
@@ -3004,11 +3510,17 @@
       <c r="D49" s="4">
         <v>97283.03</v>
       </c>
-      <c r="E49" s="4"/>
+      <c r="E49" s="4" t="str">
+        <f>IF(D49&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F49" s="4">
         <v>0</v>
       </c>
-      <c r="G49" s="4"/>
+      <c r="G49" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H49" s="4">
         <v>35137.120000000003</v>
       </c>
@@ -3018,8 +3530,12 @@
       <c r="J49" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>122002</v>
       </c>
@@ -3032,11 +3548,17 @@
       <c r="D50" s="4">
         <v>96436.41</v>
       </c>
-      <c r="E50" s="4"/>
+      <c r="E50" s="4" t="str">
+        <f>IF(D50&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F50" s="4">
         <v>0</v>
       </c>
-      <c r="G50" s="4"/>
+      <c r="G50" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H50" s="4">
         <v>35920.86</v>
       </c>
@@ -3046,8 +3568,12 @@
       <c r="J50" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>122011</v>
       </c>
@@ -3060,11 +3586,17 @@
       <c r="D51" s="4">
         <v>94984.09</v>
       </c>
-      <c r="E51" s="4"/>
+      <c r="E51" s="4" t="str">
+        <f>IF(D51&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F51" s="4">
         <v>0</v>
       </c>
-      <c r="G51" s="4"/>
+      <c r="G51" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H51" s="4">
         <v>33116.720000000001</v>
       </c>
@@ -3074,8 +3606,12 @@
       <c r="J51" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K51" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>122885</v>
       </c>
@@ -3088,11 +3624,17 @@
       <c r="D52" s="4">
         <v>94984.08</v>
       </c>
-      <c r="E52" s="4"/>
+      <c r="E52" s="4" t="str">
+        <f>IF(D52&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F52" s="4">
         <v>0</v>
       </c>
-      <c r="G52" s="4"/>
+      <c r="G52" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H52" s="4">
         <v>34621.449999999997</v>
       </c>
@@ -3102,8 +3644,12 @@
       <c r="J52" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>122506</v>
       </c>
@@ -3116,11 +3662,17 @@
       <c r="D53" s="4">
         <v>94984.07</v>
       </c>
-      <c r="E53" s="4"/>
+      <c r="E53" s="4" t="str">
+        <f>IF(D53&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F53" s="4">
         <v>0</v>
       </c>
-      <c r="G53" s="4"/>
+      <c r="G53" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H53" s="4">
         <v>34621.480000000003</v>
       </c>
@@ -3130,8 +3682,12 @@
       <c r="J53" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>122505</v>
       </c>
@@ -3144,11 +3700,17 @@
       <c r="D54" s="4">
         <v>94984.06</v>
       </c>
-      <c r="E54" s="4"/>
+      <c r="E54" s="4" t="str">
+        <f>IF(D54&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F54" s="4">
         <v>0</v>
       </c>
-      <c r="G54" s="4"/>
+      <c r="G54" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H54" s="4">
         <v>34843.519999999997</v>
       </c>
@@ -3158,8 +3720,12 @@
       <c r="J54" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K54" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>122262</v>
       </c>
@@ -3172,11 +3738,17 @@
       <c r="D55" s="4">
         <v>94984.05</v>
       </c>
-      <c r="E55" s="4"/>
+      <c r="E55" s="4" t="str">
+        <f>IF(D55&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F55" s="4">
         <v>0</v>
       </c>
-      <c r="G55" s="4"/>
+      <c r="G55" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H55" s="4">
         <v>34621.440000000002</v>
       </c>
@@ -3186,8 +3758,12 @@
       <c r="J55" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>122511</v>
       </c>
@@ -3200,11 +3776,17 @@
       <c r="D56" s="4">
         <v>94984.05</v>
       </c>
-      <c r="E56" s="4"/>
+      <c r="E56" s="4" t="str">
+        <f>IF(D56&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F56" s="4">
         <v>0</v>
       </c>
-      <c r="G56" s="4"/>
+      <c r="G56" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H56" s="4">
         <v>34621.46</v>
       </c>
@@ -3214,8 +3796,12 @@
       <c r="J56" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>122508</v>
       </c>
@@ -3228,11 +3814,17 @@
       <c r="D57" s="4">
         <v>94984.04</v>
       </c>
-      <c r="E57" s="4"/>
+      <c r="E57" s="4" t="str">
+        <f>IF(D57&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F57" s="4">
         <v>0</v>
       </c>
-      <c r="G57" s="4"/>
+      <c r="G57" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H57" s="4">
         <v>34618.43</v>
       </c>
@@ -3242,8 +3834,12 @@
       <c r="J57" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K57" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>122544</v>
       </c>
@@ -3256,11 +3852,17 @@
       <c r="D58" s="4">
         <v>94984.04</v>
       </c>
-      <c r="E58" s="4"/>
+      <c r="E58" s="4" t="str">
+        <f>IF(D58&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F58" s="4">
         <v>0</v>
       </c>
-      <c r="G58" s="4"/>
+      <c r="G58" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H58" s="4">
         <v>34621.47</v>
       </c>
@@ -3270,8 +3872,12 @@
       <c r="J58" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K58" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>122509</v>
       </c>
@@ -3284,11 +3890,17 @@
       <c r="D59" s="4">
         <v>94984.03</v>
       </c>
-      <c r="E59" s="4"/>
+      <c r="E59" s="4" t="str">
+        <f>IF(D59&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F59" s="4">
         <v>0</v>
       </c>
-      <c r="G59" s="4"/>
+      <c r="G59" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H59" s="4">
         <v>34621.440000000002</v>
       </c>
@@ -3298,8 +3910,12 @@
       <c r="J59" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K59" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>122513</v>
       </c>
@@ -3312,11 +3928,17 @@
       <c r="D60" s="4">
         <v>94984.03</v>
       </c>
-      <c r="E60" s="4"/>
+      <c r="E60" s="4" t="str">
+        <f>IF(D60&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F60" s="4">
         <v>0</v>
       </c>
-      <c r="G60" s="4"/>
+      <c r="G60" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H60" s="4">
         <v>35571.279999999999</v>
       </c>
@@ -3326,8 +3948,12 @@
       <c r="J60" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K60" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>122313</v>
       </c>
@@ -3340,11 +3966,17 @@
       <c r="D61" s="4">
         <v>94984.03</v>
       </c>
-      <c r="E61" s="4"/>
+      <c r="E61" s="4" t="str">
+        <f>IF(D61&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F61" s="4">
         <v>0</v>
       </c>
-      <c r="G61" s="4"/>
+      <c r="G61" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H61" s="4">
         <v>35041.65</v>
       </c>
@@ -3354,8 +3986,12 @@
       <c r="J61" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K61" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>122083</v>
       </c>
@@ -3368,11 +4004,17 @@
       <c r="D62" s="4">
         <v>94984.02</v>
       </c>
-      <c r="E62" s="4"/>
+      <c r="E62" s="4" t="str">
+        <f>IF(D62&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F62" s="4">
         <v>0</v>
       </c>
-      <c r="G62" s="4"/>
+      <c r="G62" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H62" s="4">
         <v>34621.43</v>
       </c>
@@ -3382,8 +4024,12 @@
       <c r="J62" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K62" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>122525</v>
       </c>
@@ -3396,11 +4042,17 @@
       <c r="D63" s="4">
         <v>94984.02</v>
       </c>
-      <c r="E63" s="4"/>
+      <c r="E63" s="4" t="str">
+        <f>IF(D63&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F63" s="4">
         <v>0</v>
       </c>
-      <c r="G63" s="4"/>
+      <c r="G63" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H63" s="4">
         <v>34621.440000000002</v>
       </c>
@@ -3410,8 +4062,12 @@
       <c r="J63" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K63" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>122516</v>
       </c>
@@ -3424,11 +4080,17 @@
       <c r="D64" s="4">
         <v>94984.02</v>
       </c>
-      <c r="E64" s="4"/>
+      <c r="E64" s="4" t="str">
+        <f>IF(D64&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F64" s="4">
         <v>0</v>
       </c>
-      <c r="G64" s="4"/>
+      <c r="G64" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H64" s="4">
         <v>34621.440000000002</v>
       </c>
@@ -3438,8 +4100,12 @@
       <c r="J64" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K64" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>122515</v>
       </c>
@@ -3452,11 +4118,17 @@
       <c r="D65" s="4">
         <v>94984.02</v>
       </c>
-      <c r="E65" s="4"/>
+      <c r="E65" s="4" t="str">
+        <f>IF(D65&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F65" s="4">
         <v>0</v>
       </c>
-      <c r="G65" s="4"/>
+      <c r="G65" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H65" s="4">
         <v>34621.440000000002</v>
       </c>
@@ -3466,8 +4138,12 @@
       <c r="J65" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K65" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>122514</v>
       </c>
@@ -3480,11 +4156,17 @@
       <c r="D66" s="4">
         <v>94984.02</v>
       </c>
-      <c r="E66" s="4"/>
+      <c r="E66" s="4" t="str">
+        <f>IF(D66&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F66" s="4">
         <v>0</v>
       </c>
-      <c r="G66" s="4"/>
+      <c r="G66" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H66" s="4">
         <v>34621.449999999997</v>
       </c>
@@ -3494,8 +4176,12 @@
       <c r="J66" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K66" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>122512</v>
       </c>
@@ -3508,11 +4194,17 @@
       <c r="D67" s="4">
         <v>94984.01</v>
       </c>
-      <c r="E67" s="4"/>
+      <c r="E67" s="4" t="str">
+        <f>IF(D67&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F67" s="4">
         <v>0</v>
       </c>
-      <c r="G67" s="4"/>
+      <c r="G67" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H67" s="4">
         <v>34621.43</v>
       </c>
@@ -3522,8 +4214,12 @@
       <c r="J67" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K67" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>122533</v>
       </c>
@@ -3536,11 +4232,17 @@
       <c r="D68" s="4">
         <v>94984.01</v>
       </c>
-      <c r="E68" s="4"/>
+      <c r="E68" s="4" t="str">
+        <f>IF(D68&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F68" s="4">
         <v>0</v>
       </c>
-      <c r="G68" s="4"/>
+      <c r="G68" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H68" s="4">
         <v>34621.43</v>
       </c>
@@ -3550,8 +4252,12 @@
       <c r="J68" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K68" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>122532</v>
       </c>
@@ -3564,11 +4270,17 @@
       <c r="D69" s="4">
         <v>94984.01</v>
       </c>
-      <c r="E69" s="4"/>
+      <c r="E69" s="4" t="str">
+        <f>IF(D69&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F69" s="4">
         <v>0</v>
       </c>
-      <c r="G69" s="4"/>
+      <c r="G69" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H69" s="4">
         <v>34621.43</v>
       </c>
@@ -3578,8 +4290,12 @@
       <c r="J69" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K69" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>122529</v>
       </c>
@@ -3592,11 +4308,17 @@
       <c r="D70" s="4">
         <v>94984.01</v>
       </c>
-      <c r="E70" s="4"/>
+      <c r="E70" s="4" t="str">
+        <f>IF(D70&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F70" s="4">
         <v>0</v>
       </c>
-      <c r="G70" s="4"/>
+      <c r="G70" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H70" s="4">
         <v>34621.43</v>
       </c>
@@ -3606,8 +4328,12 @@
       <c r="J70" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K70" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>122528</v>
       </c>
@@ -3620,11 +4346,17 @@
       <c r="D71" s="4">
         <v>94984.01</v>
       </c>
-      <c r="E71" s="4"/>
+      <c r="E71" s="4" t="str">
+        <f>IF(D71&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F71" s="4">
         <v>0</v>
       </c>
-      <c r="G71" s="4"/>
+      <c r="G71" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H71" s="4">
         <v>34621.43</v>
       </c>
@@ -3634,8 +4366,12 @@
       <c r="J71" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K71" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>122527</v>
       </c>
@@ -3648,11 +4384,17 @@
       <c r="D72" s="4">
         <v>94984.01</v>
       </c>
-      <c r="E72" s="4"/>
+      <c r="E72" s="4" t="str">
+        <f>IF(D72&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F72" s="4">
         <v>0</v>
       </c>
-      <c r="G72" s="4"/>
+      <c r="G72" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H72" s="4">
         <v>34621.43</v>
       </c>
@@ -3662,8 +4404,12 @@
       <c r="J72" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K72" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>122526</v>
       </c>
@@ -3676,11 +4422,17 @@
       <c r="D73" s="4">
         <v>94984.01</v>
       </c>
-      <c r="E73" s="4"/>
+      <c r="E73" s="4" t="str">
+        <f>IF(D73&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F73" s="4">
         <v>0</v>
       </c>
-      <c r="G73" s="4"/>
+      <c r="G73" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H73" s="4">
         <v>34621.440000000002</v>
       </c>
@@ -3690,8 +4442,12 @@
       <c r="J73" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K73" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>122524</v>
       </c>
@@ -3704,11 +4460,17 @@
       <c r="D74" s="4">
         <v>94984.01</v>
       </c>
-      <c r="E74" s="4"/>
+      <c r="E74" s="4" t="str">
+        <f>IF(D74&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F74" s="4">
         <v>0</v>
       </c>
-      <c r="G74" s="4"/>
+      <c r="G74" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H74" s="4">
         <v>34621.440000000002</v>
       </c>
@@ -3718,8 +4480,12 @@
       <c r="J74" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K74" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>122523</v>
       </c>
@@ -3732,11 +4498,17 @@
       <c r="D75" s="4">
         <v>94984.01</v>
       </c>
-      <c r="E75" s="4"/>
+      <c r="E75" s="4" t="str">
+        <f>IF(D75&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F75" s="4">
         <v>0</v>
       </c>
-      <c r="G75" s="4"/>
+      <c r="G75" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H75" s="4">
         <v>34621.440000000002</v>
       </c>
@@ -3746,8 +4518,12 @@
       <c r="J75" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K75" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>122522</v>
       </c>
@@ -3760,11 +4536,17 @@
       <c r="D76" s="4">
         <v>94984.01</v>
       </c>
-      <c r="E76" s="4"/>
+      <c r="E76" s="4" t="str">
+        <f>IF(D76&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F76" s="4">
         <v>0</v>
       </c>
-      <c r="G76" s="4"/>
+      <c r="G76" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H76" s="4">
         <v>34621.440000000002</v>
       </c>
@@ -3774,8 +4556,12 @@
       <c r="J76" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K76" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>122521</v>
       </c>
@@ -3788,11 +4574,17 @@
       <c r="D77" s="4">
         <v>94984.01</v>
       </c>
-      <c r="E77" s="4"/>
+      <c r="E77" s="4" t="str">
+        <f>IF(D77&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F77" s="4">
         <v>0</v>
       </c>
-      <c r="G77" s="4"/>
+      <c r="G77" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H77" s="4">
         <v>34621.440000000002</v>
       </c>
@@ -3802,8 +4594,12 @@
       <c r="J77" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K77" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>122519</v>
       </c>
@@ -3816,11 +4612,17 @@
       <c r="D78" s="4">
         <v>94984</v>
       </c>
-      <c r="E78" s="4"/>
+      <c r="E78" s="4" t="str">
+        <f>IF(D78&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F78" s="4">
         <v>0</v>
       </c>
-      <c r="G78" s="4"/>
+      <c r="G78" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H78" s="4">
         <v>23212.639999999999</v>
       </c>
@@ -3830,8 +4632,12 @@
       <c r="J78" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K78" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>124870</v>
       </c>
@@ -3844,11 +4650,17 @@
       <c r="D79" s="4">
         <v>94984</v>
       </c>
-      <c r="E79" s="4"/>
+      <c r="E79" s="4" t="str">
+        <f>IF(D79&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F79" s="4">
         <v>0</v>
       </c>
-      <c r="G79" s="4"/>
+      <c r="G79" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H79" s="4">
         <v>34621.4</v>
       </c>
@@ -3858,8 +4670,12 @@
       <c r="J79" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K79" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>122543</v>
       </c>
@@ -3872,11 +4688,17 @@
       <c r="D80" s="4">
         <v>94984</v>
       </c>
-      <c r="E80" s="4"/>
+      <c r="E80" s="4" t="str">
+        <f>IF(D80&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F80" s="4">
         <v>0</v>
       </c>
-      <c r="G80" s="4"/>
+      <c r="G80" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H80" s="4">
         <v>34621.43</v>
       </c>
@@ -3886,8 +4708,12 @@
       <c r="J80" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K80" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>122542</v>
       </c>
@@ -3900,11 +4726,17 @@
       <c r="D81" s="4">
         <v>94984</v>
       </c>
-      <c r="E81" s="4"/>
+      <c r="E81" s="4" t="str">
+        <f>IF(D81&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F81" s="4">
         <v>0</v>
       </c>
-      <c r="G81" s="4"/>
+      <c r="G81" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H81" s="4">
         <v>34621.43</v>
       </c>
@@ -3914,8 +4746,12 @@
       <c r="J81" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K81" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>122541</v>
       </c>
@@ -3928,11 +4764,17 @@
       <c r="D82" s="4">
         <v>94984</v>
       </c>
-      <c r="E82" s="4"/>
+      <c r="E82" s="4" t="str">
+        <f>IF(D82&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F82" s="4">
         <v>0</v>
       </c>
-      <c r="G82" s="4"/>
+      <c r="G82" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H82" s="4">
         <v>34621.43</v>
       </c>
@@ -3942,8 +4784,12 @@
       <c r="J82" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K82" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>122540</v>
       </c>
@@ -3956,11 +4802,17 @@
       <c r="D83" s="4">
         <v>94984</v>
       </c>
-      <c r="E83" s="4"/>
+      <c r="E83" s="4" t="str">
+        <f>IF(D83&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F83" s="4">
         <v>0</v>
       </c>
-      <c r="G83" s="4"/>
+      <c r="G83" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H83" s="4">
         <v>34621.43</v>
       </c>
@@ -3970,8 +4822,12 @@
       <c r="J83" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K83" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>122539</v>
       </c>
@@ -3984,11 +4840,17 @@
       <c r="D84" s="4">
         <v>94984</v>
       </c>
-      <c r="E84" s="4"/>
+      <c r="E84" s="4" t="str">
+        <f>IF(D84&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F84" s="4">
         <v>0</v>
       </c>
-      <c r="G84" s="4"/>
+      <c r="G84" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H84" s="4">
         <v>34621.43</v>
       </c>
@@ -3998,8 +4860,12 @@
       <c r="J84" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K84" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>122538</v>
       </c>
@@ -4012,11 +4878,17 @@
       <c r="D85" s="4">
         <v>94984</v>
       </c>
-      <c r="E85" s="4"/>
+      <c r="E85" s="4" t="str">
+        <f>IF(D85&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F85" s="4">
         <v>0</v>
       </c>
-      <c r="G85" s="4"/>
+      <c r="G85" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H85" s="4">
         <v>34621.43</v>
       </c>
@@ -4026,8 +4898,12 @@
       <c r="J85" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K85" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>122537</v>
       </c>
@@ -4040,11 +4916,17 @@
       <c r="D86" s="4">
         <v>94984</v>
       </c>
-      <c r="E86" s="4"/>
+      <c r="E86" s="4" t="str">
+        <f>IF(D86&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F86" s="4">
         <v>0</v>
       </c>
-      <c r="G86" s="4"/>
+      <c r="G86" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H86" s="4">
         <v>34621.43</v>
       </c>
@@ -4054,8 +4936,12 @@
       <c r="J86" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K86" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>122536</v>
       </c>
@@ -4068,11 +4954,17 @@
       <c r="D87" s="4">
         <v>94984</v>
       </c>
-      <c r="E87" s="4"/>
+      <c r="E87" s="4" t="str">
+        <f>IF(D87&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F87" s="4">
         <v>0</v>
       </c>
-      <c r="G87" s="4"/>
+      <c r="G87" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H87" s="4">
         <v>34621.43</v>
       </c>
@@ -4082,8 +4974,12 @@
       <c r="J87" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K87" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>122535</v>
       </c>
@@ -4096,11 +4992,17 @@
       <c r="D88" s="4">
         <v>94984</v>
       </c>
-      <c r="E88" s="4"/>
+      <c r="E88" s="4" t="str">
+        <f>IF(D88&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F88" s="4">
         <v>0</v>
       </c>
-      <c r="G88" s="4"/>
+      <c r="G88" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H88" s="4">
         <v>34621.43</v>
       </c>
@@ -4110,8 +5012,12 @@
       <c r="J88" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K88" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>122534</v>
       </c>
@@ -4124,11 +5030,17 @@
       <c r="D89" s="4">
         <v>94984</v>
       </c>
-      <c r="E89" s="4"/>
+      <c r="E89" s="4" t="str">
+        <f>IF(D89&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F89" s="4">
         <v>0</v>
       </c>
-      <c r="G89" s="4"/>
+      <c r="G89" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H89" s="4">
         <v>34774.9</v>
       </c>
@@ -4138,8 +5050,12 @@
       <c r="J89" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K89" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>122322</v>
       </c>
@@ -4152,11 +5068,17 @@
       <c r="D90" s="4">
         <v>94984</v>
       </c>
-      <c r="E90" s="4"/>
+      <c r="E90" s="4" t="str">
+        <f>IF(D90&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F90" s="4">
         <v>0</v>
       </c>
-      <c r="G90" s="4"/>
+      <c r="G90" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H90" s="4">
         <v>35571.269999999997</v>
       </c>
@@ -4166,8 +5088,12 @@
       <c r="J90" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K90" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>122315</v>
       </c>
@@ -4180,11 +5106,17 @@
       <c r="D91" s="4">
         <v>94938.92</v>
       </c>
-      <c r="E91" s="4"/>
+      <c r="E91" s="4" t="str">
+        <f>IF(D91&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F91" s="4">
         <v>0</v>
       </c>
-      <c r="G91" s="4"/>
+      <c r="G91" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H91" s="4">
         <v>34605.15</v>
       </c>
@@ -4194,8 +5126,12 @@
       <c r="J91" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K91" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>122555</v>
       </c>
@@ -4208,11 +5144,17 @@
       <c r="D92" s="4">
         <v>94297.06</v>
       </c>
-      <c r="E92" s="4"/>
+      <c r="E92" s="4" t="str">
+        <f>IF(D92&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F92" s="4">
         <v>0</v>
       </c>
-      <c r="G92" s="4"/>
+      <c r="G92" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H92" s="4">
         <v>34475</v>
       </c>
@@ -4222,8 +5164,12 @@
       <c r="J92" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K92" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>122733</v>
       </c>
@@ -4236,11 +5182,17 @@
       <c r="D93" s="4">
         <v>93711.86</v>
       </c>
-      <c r="E93" s="4"/>
+      <c r="E93" s="4" t="str">
+        <f>IF(D93&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F93" s="4">
         <v>0</v>
       </c>
-      <c r="G93" s="4"/>
+      <c r="G93" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H93" s="4">
         <v>34350.199999999997</v>
       </c>
@@ -4250,8 +5202,12 @@
       <c r="J93" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K93" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>122892</v>
       </c>
@@ -4264,11 +5220,17 @@
       <c r="D94" s="4">
         <v>93538.87</v>
       </c>
-      <c r="E94" s="4"/>
+      <c r="E94" s="4" t="str">
+        <f>IF(D94&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F94" s="4">
         <v>0</v>
       </c>
-      <c r="G94" s="4"/>
+      <c r="G94" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H94" s="4">
         <v>34313.32</v>
       </c>
@@ -4278,8 +5240,12 @@
       <c r="J94" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K94" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>122927</v>
       </c>
@@ -4292,11 +5258,17 @@
       <c r="D95" s="4">
         <v>93417.73</v>
       </c>
-      <c r="E95" s="4"/>
+      <c r="E95" s="4" t="str">
+        <f>IF(D95&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F95" s="4">
         <v>0</v>
       </c>
-      <c r="G95" s="4"/>
+      <c r="G95" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
       <c r="H95" s="4">
         <v>35221.67</v>
       </c>
@@ -4306,8 +5278,12 @@
       <c r="J95" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K95" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>122751</v>
       </c>
@@ -4320,11 +5296,17 @@
       <c r="D96" s="4">
         <v>91034.01</v>
       </c>
-      <c r="E96" s="4"/>
+      <c r="E96" s="4" t="str">
+        <f>IF(D96&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F96" s="4">
         <v>0</v>
       </c>
-      <c r="G96" s="4"/>
+      <c r="G96" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H96" s="4">
         <v>33779.230000000003</v>
       </c>
@@ -4334,8 +5316,12 @@
       <c r="J96" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K96" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>123516</v>
       </c>
@@ -4348,11 +5334,17 @@
       <c r="D97" s="4">
         <v>90914.05</v>
       </c>
-      <c r="E97" s="4"/>
+      <c r="E97" s="4" t="str">
+        <f>IF(D97&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F97" s="4">
         <v>0</v>
       </c>
-      <c r="G97" s="4"/>
+      <c r="G97" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H97" s="4">
         <v>33734.559999999998</v>
       </c>
@@ -4362,8 +5354,12 @@
       <c r="J97" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K97" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>123544</v>
       </c>
@@ -4376,11 +5372,17 @@
       <c r="D98" s="4">
         <v>90290.73</v>
       </c>
-      <c r="E98" s="4"/>
+      <c r="E98" s="4" t="str">
+        <f>IF(D98&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F98" s="4">
         <v>0</v>
       </c>
-      <c r="G98" s="4"/>
+      <c r="G98" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H98" s="4">
         <v>33596.75</v>
       </c>
@@ -4390,8 +5392,12 @@
       <c r="J98" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K98" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>123986</v>
       </c>
@@ -4404,11 +5410,17 @@
       <c r="D99" s="4">
         <v>90290.71</v>
       </c>
-      <c r="E99" s="4"/>
+      <c r="E99" s="4" t="str">
+        <f>IF(D99&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F99" s="4">
         <v>0</v>
       </c>
-      <c r="G99" s="4"/>
+      <c r="G99" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H99" s="4">
         <v>33596.730000000003</v>
       </c>
@@ -4418,8 +5430,12 @@
       <c r="J99" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K99" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>123712</v>
       </c>
@@ -4432,11 +5448,17 @@
       <c r="D100" s="4">
         <v>89146.44</v>
       </c>
-      <c r="E100" s="4"/>
+      <c r="E100" s="4" t="str">
+        <f>IF(D100&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F100" s="4">
         <v>0</v>
       </c>
-      <c r="G100" s="4"/>
+      <c r="G100" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H100" s="4">
         <v>33352.75</v>
       </c>
@@ -4446,8 +5468,12 @@
       <c r="J100" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K100" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>123713</v>
       </c>
@@ -4460,11 +5486,17 @@
       <c r="D101" s="4">
         <v>89058.42</v>
       </c>
-      <c r="E101" s="4"/>
+      <c r="E101" s="4" t="str">
+        <f>IF(D101&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F101" s="4">
         <v>0</v>
       </c>
-      <c r="G101" s="4"/>
+      <c r="G101" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H101" s="4">
         <v>33379.599999999999</v>
       </c>
@@ -4474,8 +5506,12 @@
       <c r="J101" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K101" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>124000</v>
       </c>
@@ -4488,11 +5524,17 @@
       <c r="D102" s="4">
         <v>87929.23</v>
       </c>
-      <c r="E102" s="4"/>
+      <c r="E102" s="4" t="str">
+        <f>IF(D102&gt;=V$4,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
       <c r="F102" s="4">
         <v>0</v>
       </c>
-      <c r="G102" s="4"/>
+      <c r="G102" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H102" s="4">
         <v>33972.519999999997</v>
       </c>
@@ -4502,8 +5544,12 @@
       <c r="J102" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K102" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>124015</v>
       </c>
@@ -4516,11 +5562,17 @@
       <c r="D103" s="4">
         <v>85450</v>
       </c>
-      <c r="E103" s="4"/>
+      <c r="E103" s="4" t="str">
+        <f>IF(D103&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F103" s="4">
         <v>0</v>
       </c>
-      <c r="G103" s="4"/>
+      <c r="G103" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H103" s="4">
         <v>33396.04</v>
       </c>
@@ -4530,8 +5582,12 @@
       <c r="J103" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K103" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>124095</v>
       </c>
@@ -4544,11 +5600,17 @@
       <c r="D104" s="4">
         <v>84740.39</v>
       </c>
-      <c r="E104" s="4"/>
+      <c r="E104" s="4" t="str">
+        <f>IF(D104&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F104" s="4">
         <v>0</v>
       </c>
-      <c r="G104" s="4"/>
+      <c r="G104" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H104" s="4">
         <v>32390.29</v>
       </c>
@@ -4558,8 +5620,12 @@
       <c r="J104" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K104" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>124706</v>
       </c>
@@ -4572,11 +5638,17 @@
       <c r="D105" s="4">
         <v>84465.32</v>
       </c>
-      <c r="E105" s="4"/>
+      <c r="E105" s="4" t="str">
+        <f>IF(D105&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F105" s="4">
         <v>0</v>
       </c>
-      <c r="G105" s="4"/>
+      <c r="G105" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H105" s="4">
         <v>32158.11</v>
       </c>
@@ -4586,8 +5658,12 @@
       <c r="J105" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K105" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>125114</v>
       </c>
@@ -4600,11 +5676,17 @@
       <c r="D106" s="4">
         <v>83035.009999999995</v>
       </c>
-      <c r="E106" s="4"/>
+      <c r="E106" s="4" t="str">
+        <f>IF(D106&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F106" s="4">
         <v>0</v>
       </c>
-      <c r="G106" s="4"/>
+      <c r="G106" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H106" s="4">
         <v>32026.720000000001</v>
       </c>
@@ -4614,8 +5696,12 @@
       <c r="J106" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K106" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>125255</v>
       </c>
@@ -4628,11 +5714,17 @@
       <c r="D107" s="4">
         <v>82814</v>
       </c>
-      <c r="E107" s="4"/>
+      <c r="E107" s="4" t="str">
+        <f>IF(D107&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F107" s="4">
         <v>0</v>
       </c>
-      <c r="G107" s="4"/>
+      <c r="G107" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H107" s="4">
         <v>31979.61</v>
       </c>
@@ -4642,8 +5734,12 @@
       <c r="J107" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K107" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>125272</v>
       </c>
@@ -4656,11 +5752,17 @@
       <c r="D108" s="4">
         <v>82581.02</v>
       </c>
-      <c r="E108" s="4"/>
+      <c r="E108" s="4" t="str">
+        <f>IF(D108&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F108" s="4">
         <v>0</v>
       </c>
-      <c r="G108" s="4"/>
+      <c r="G108" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H108" s="4">
         <v>32755.72</v>
       </c>
@@ -4670,8 +5772,12 @@
       <c r="J108" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K108" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>125612</v>
       </c>
@@ -4684,11 +5790,17 @@
       <c r="D109" s="4">
         <v>82481.97</v>
       </c>
-      <c r="E109" s="4"/>
+      <c r="E109" s="4" t="str">
+        <f>IF(D109&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F109" s="4">
         <v>0</v>
       </c>
-      <c r="G109" s="4"/>
+      <c r="G109" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H109" s="4">
         <v>32719.37</v>
       </c>
@@ -4698,8 +5810,12 @@
       <c r="J109" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K109" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>125684</v>
       </c>
@@ -4712,11 +5828,17 @@
       <c r="D110" s="4">
         <v>82300.009999999995</v>
       </c>
-      <c r="E110" s="4"/>
+      <c r="E110" s="4" t="str">
+        <f>IF(D110&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F110" s="4">
         <v>0</v>
       </c>
-      <c r="G110" s="4"/>
+      <c r="G110" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H110" s="4">
         <v>31870.04</v>
       </c>
@@ -4726,8 +5848,12 @@
       <c r="J110" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K110" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>125524</v>
       </c>
@@ -4740,11 +5866,17 @@
       <c r="D111" s="4">
         <v>82184.92</v>
       </c>
-      <c r="E111" s="4"/>
+      <c r="E111" s="4" t="str">
+        <f>IF(D111&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F111" s="4">
         <v>0</v>
       </c>
-      <c r="G111" s="4"/>
+      <c r="G111" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H111" s="4">
         <v>31845.4</v>
       </c>
@@ -4754,8 +5886,12 @@
       <c r="J111" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K111" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>125567</v>
       </c>
@@ -4768,11 +5904,17 @@
       <c r="D112" s="4">
         <v>81805.11</v>
       </c>
-      <c r="E112" s="4"/>
+      <c r="E112" s="4" t="str">
+        <f>IF(D112&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F112" s="4">
         <v>0</v>
       </c>
-      <c r="G112" s="4"/>
+      <c r="G112" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H112" s="4">
         <v>31761.43</v>
       </c>
@@ -4782,8 +5924,12 @@
       <c r="J112" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K112" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>125857</v>
       </c>
@@ -4796,11 +5942,17 @@
       <c r="D113" s="4">
         <v>81742.210000000006</v>
       </c>
-      <c r="E113" s="4"/>
+      <c r="E113" s="4" t="str">
+        <f>IF(D113&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F113" s="4">
         <v>0</v>
       </c>
-      <c r="G113" s="4"/>
+      <c r="G113" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H113" s="4">
         <v>32546.59</v>
       </c>
@@ -4810,8 +5962,12 @@
       <c r="J113" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K113" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>125904</v>
       </c>
@@ -4824,11 +5980,17 @@
       <c r="D114" s="4">
         <v>80852.009999999995</v>
       </c>
-      <c r="E114" s="4"/>
+      <c r="E114" s="4" t="str">
+        <f>IF(D114&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F114" s="4">
         <v>0</v>
       </c>
-      <c r="G114" s="4"/>
+      <c r="G114" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H114" s="4">
         <v>32347.91</v>
       </c>
@@ -4838,8 +6000,12 @@
       <c r="J114" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K114" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>126000</v>
       </c>
@@ -4852,11 +6018,17 @@
       <c r="D115" s="4">
         <v>80702.02</v>
       </c>
-      <c r="E115" s="4"/>
+      <c r="E115" s="4" t="str">
+        <f>IF(D115&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F115" s="4">
         <v>0</v>
       </c>
-      <c r="G115" s="4"/>
+      <c r="G115" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H115" s="4">
         <v>32314.43</v>
       </c>
@@ -4866,8 +6038,12 @@
       <c r="J115" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K115" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>125837</v>
       </c>
@@ -4880,11 +6056,17 @@
       <c r="D116" s="4">
         <v>79904.12</v>
       </c>
-      <c r="E116" s="4"/>
+      <c r="E116" s="4" t="str">
+        <f>IF(D116&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F116" s="4">
         <v>0</v>
       </c>
-      <c r="G116" s="4"/>
+      <c r="G116" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H116" s="4">
         <v>31969.18</v>
       </c>
@@ -4894,8 +6076,12 @@
       <c r="J116" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K116" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>126083</v>
       </c>
@@ -4908,11 +6094,17 @@
       <c r="D117" s="4">
         <v>79802.02</v>
       </c>
-      <c r="E117" s="4"/>
+      <c r="E117" s="4" t="str">
+        <f>IF(D117&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F117" s="4">
         <v>0</v>
       </c>
-      <c r="G117" s="4"/>
+      <c r="G117" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H117" s="4">
         <v>32111.07</v>
       </c>
@@ -4922,8 +6114,12 @@
       <c r="J117" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K117" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>126125</v>
       </c>
@@ -4936,11 +6132,17 @@
       <c r="D118" s="4">
         <v>79652.009999999995</v>
       </c>
-      <c r="E118" s="4"/>
+      <c r="E118" s="4" t="str">
+        <f>IF(D118&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F118" s="4">
         <v>0</v>
       </c>
-      <c r="G118" s="4"/>
+      <c r="G118" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H118" s="4">
         <v>32075.93</v>
       </c>
@@ -4950,8 +6152,12 @@
       <c r="J118" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K118" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>126427</v>
       </c>
@@ -4964,11 +6170,17 @@
       <c r="D119" s="4">
         <v>79058</v>
       </c>
-      <c r="E119" s="4"/>
+      <c r="E119" s="4" t="str">
+        <f>IF(D119&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F119" s="4">
         <v>0</v>
       </c>
-      <c r="G119" s="4"/>
+      <c r="G119" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H119" s="4">
         <v>31144.78</v>
       </c>
@@ -4978,8 +6190,12 @@
       <c r="J119" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K119" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>127221</v>
       </c>
@@ -4992,11 +6208,17 @@
       <c r="D120" s="4">
         <v>78896.929999999993</v>
       </c>
-      <c r="E120" s="4"/>
+      <c r="E120" s="4" t="str">
+        <f>IF(D120&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F120" s="4">
         <v>0</v>
       </c>
-      <c r="G120" s="4"/>
+      <c r="G120" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H120" s="4">
         <v>29977.03</v>
       </c>
@@ -5006,8 +6228,12 @@
       <c r="J120" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K120" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>126423</v>
       </c>
@@ -5020,11 +6246,17 @@
       <c r="D121" s="4">
         <v>78524.11</v>
       </c>
-      <c r="E121" s="4"/>
+      <c r="E121" s="4" t="str">
+        <f>IF(D121&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F121" s="4">
         <v>0</v>
       </c>
-      <c r="G121" s="4"/>
+      <c r="G121" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H121" s="4">
         <v>31024.240000000002</v>
       </c>
@@ -5034,8 +6266,12 @@
       <c r="J121" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K121" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>126452</v>
       </c>
@@ -5048,11 +6284,17 @@
       <c r="D122" s="4">
         <v>78524.09</v>
       </c>
-      <c r="E122" s="4"/>
+      <c r="E122" s="4" t="str">
+        <f>IF(D122&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F122" s="4">
         <v>0</v>
       </c>
-      <c r="G122" s="4"/>
+      <c r="G122" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H122" s="4">
         <v>31024.22</v>
       </c>
@@ -5062,8 +6304,12 @@
       <c r="J122" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K122" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>126836</v>
       </c>
@@ -5076,11 +6322,17 @@
       <c r="D123" s="4">
         <v>78524.070000000007</v>
       </c>
-      <c r="E123" s="4"/>
+      <c r="E123" s="4" t="str">
+        <f>IF(D123&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F123" s="4">
         <v>0</v>
       </c>
-      <c r="G123" s="4"/>
+      <c r="G123" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H123" s="4">
         <v>31024.23</v>
       </c>
@@ -5090,8 +6342,12 @@
       <c r="J123" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K123" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>127260</v>
       </c>
@@ -5104,11 +6360,17 @@
       <c r="D124" s="4">
         <v>78524.06</v>
       </c>
-      <c r="E124" s="4"/>
+      <c r="E124" s="4" t="str">
+        <f>IF(D124&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F124" s="4">
         <v>0</v>
       </c>
-      <c r="G124" s="4"/>
+      <c r="G124" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H124" s="4">
         <v>31024.22</v>
       </c>
@@ -5118,8 +6380,12 @@
       <c r="J124" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K124" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>127048</v>
       </c>
@@ -5132,11 +6398,17 @@
       <c r="D125" s="4">
         <v>78524.05</v>
       </c>
-      <c r="E125" s="4"/>
+      <c r="E125" s="4" t="str">
+        <f>IF(D125&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F125" s="4">
         <v>0</v>
       </c>
-      <c r="G125" s="4"/>
+      <c r="G125" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H125" s="4">
         <v>29708.47</v>
       </c>
@@ -5146,8 +6418,12 @@
       <c r="J125" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K125" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>127049</v>
       </c>
@@ -5160,11 +6436,17 @@
       <c r="D126" s="4">
         <v>78524.05</v>
       </c>
-      <c r="E126" s="4"/>
+      <c r="E126" s="4" t="str">
+        <f>IF(D126&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F126" s="4">
         <v>0</v>
       </c>
-      <c r="G126" s="4"/>
+      <c r="G126" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H126" s="4">
         <v>31024.22</v>
       </c>
@@ -5174,8 +6456,12 @@
       <c r="J126" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K126" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>127050</v>
       </c>
@@ -5188,11 +6474,17 @@
       <c r="D127" s="4">
         <v>78524.05</v>
       </c>
-      <c r="E127" s="4"/>
+      <c r="E127" s="4" t="str">
+        <f>IF(D127&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F127" s="4">
         <v>0</v>
       </c>
-      <c r="G127" s="4"/>
+      <c r="G127" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H127" s="4">
         <v>31024.23</v>
       </c>
@@ -5202,8 +6494,12 @@
       <c r="J127" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K127" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>127052</v>
       </c>
@@ -5216,11 +6512,17 @@
       <c r="D128" s="4">
         <v>78524.05</v>
       </c>
-      <c r="E128" s="4"/>
+      <c r="E128" s="4" t="str">
+        <f>IF(D128&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F128" s="4">
         <v>0</v>
       </c>
-      <c r="G128" s="4"/>
+      <c r="G128" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H128" s="4">
         <v>31024.23</v>
       </c>
@@ -5230,8 +6532,12 @@
       <c r="J128" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K128" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>127467</v>
       </c>
@@ -5244,11 +6550,17 @@
       <c r="D129" s="4">
         <v>78524.05</v>
       </c>
-      <c r="E129" s="4"/>
+      <c r="E129" s="4" t="str">
+        <f>IF(D129&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F129" s="4">
         <v>0</v>
       </c>
-      <c r="G129" s="4"/>
+      <c r="G129" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H129" s="4">
         <v>31025.47</v>
       </c>
@@ -5258,8 +6570,12 @@
       <c r="J129" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K129" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>127054</v>
       </c>
@@ -5272,11 +6588,17 @@
       <c r="D130" s="4">
         <v>78524.039999999994</v>
       </c>
-      <c r="E130" s="4"/>
+      <c r="E130" s="4" t="str">
+        <f>IF(D130&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F130" s="4">
         <v>0</v>
       </c>
-      <c r="G130" s="4"/>
+      <c r="G130" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H130" s="4">
         <v>31811.14</v>
       </c>
@@ -5286,8 +6608,12 @@
       <c r="J130" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K130" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>127053</v>
       </c>
@@ -5300,11 +6626,17 @@
       <c r="D131" s="4">
         <v>78524.03</v>
       </c>
-      <c r="E131" s="4"/>
+      <c r="E131" s="4" t="str">
+        <f>IF(D131&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F131" s="4">
         <v>0</v>
       </c>
-      <c r="G131" s="4"/>
+      <c r="G131" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H131" s="4">
         <v>31024.21</v>
       </c>
@@ -5314,8 +6646,12 @@
       <c r="J131" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K131" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>127051</v>
       </c>
@@ -5328,11 +6664,17 @@
       <c r="D132" s="4">
         <v>78524.03</v>
       </c>
-      <c r="E132" s="4"/>
+      <c r="E132" s="4" t="str">
+        <f>IF(D132&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F132" s="4">
         <v>0</v>
       </c>
-      <c r="G132" s="4"/>
+      <c r="G132" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H132" s="4">
         <v>31024.22</v>
       </c>
@@ -5342,8 +6684,12 @@
       <c r="J132" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K132" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>127046</v>
       </c>
@@ -5356,11 +6702,17 @@
       <c r="D133" s="4">
         <v>78524.03</v>
       </c>
-      <c r="E133" s="4"/>
+      <c r="E133" s="4" t="str">
+        <f>IF(D133&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F133" s="4">
         <v>0</v>
       </c>
-      <c r="G133" s="4"/>
+      <c r="G133" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H133" s="4">
         <v>31024.22</v>
       </c>
@@ -5370,8 +6722,12 @@
       <c r="J133" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K133" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>126806</v>
       </c>
@@ -5384,11 +6740,17 @@
       <c r="D134" s="4">
         <v>78524.03</v>
       </c>
-      <c r="E134" s="4"/>
+      <c r="E134" s="4" t="str">
+        <f>IF(D134&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F134" s="4">
         <v>0</v>
       </c>
-      <c r="G134" s="4"/>
+      <c r="G134" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H134" s="4">
         <v>31024.23</v>
       </c>
@@ -5398,8 +6760,12 @@
       <c r="J134" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K134" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>127062</v>
       </c>
@@ -5412,11 +6778,17 @@
       <c r="D135" s="4">
         <v>78524.03</v>
       </c>
-      <c r="E135" s="4"/>
+      <c r="E135" s="4" t="str">
+        <f>IF(D135&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F135" s="4">
         <v>0</v>
       </c>
-      <c r="G135" s="4"/>
+      <c r="G135" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H135" s="4">
         <v>31024.23</v>
       </c>
@@ -5426,8 +6798,12 @@
       <c r="J135" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K135" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>127058</v>
       </c>
@@ -5440,11 +6816,17 @@
       <c r="D136" s="4">
         <v>78524.02</v>
       </c>
-      <c r="E136" s="4"/>
+      <c r="E136" s="4" t="str">
+        <f>IF(D136&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F136" s="4">
         <v>0</v>
       </c>
-      <c r="G136" s="4"/>
+      <c r="G136" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H136" s="4">
         <v>31024.22</v>
       </c>
@@ -5454,8 +6836,12 @@
       <c r="J136" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K136" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>127057</v>
       </c>
@@ -5468,11 +6854,17 @@
       <c r="D137" s="4">
         <v>78524.02</v>
       </c>
-      <c r="E137" s="4"/>
+      <c r="E137" s="4" t="str">
+        <f>IF(D137&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F137" s="4">
         <v>0</v>
       </c>
-      <c r="G137" s="4"/>
+      <c r="G137" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H137" s="4">
         <v>31024.22</v>
       </c>
@@ -5482,8 +6874,12 @@
       <c r="J137" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K137" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>127056</v>
       </c>
@@ -5496,11 +6892,17 @@
       <c r="D138" s="4">
         <v>78524.02</v>
       </c>
-      <c r="E138" s="4"/>
+      <c r="E138" s="4" t="str">
+        <f>IF(D138&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F138" s="4">
         <v>0</v>
       </c>
-      <c r="G138" s="4"/>
+      <c r="G138" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H138" s="4">
         <v>31024.22</v>
       </c>
@@ -5510,8 +6912,12 @@
       <c r="J138" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K138" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>127055</v>
       </c>
@@ -5524,11 +6930,17 @@
       <c r="D139" s="4">
         <v>78524.02</v>
       </c>
-      <c r="E139" s="4"/>
+      <c r="E139" s="4" t="str">
+        <f>IF(D139&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F139" s="4">
         <v>0</v>
       </c>
-      <c r="G139" s="4"/>
+      <c r="G139" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H139" s="4">
         <v>31024.22</v>
       </c>
@@ -5538,8 +6950,12 @@
       <c r="J139" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K139" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>127065</v>
       </c>
@@ -5552,11 +6968,17 @@
       <c r="D140" s="4">
         <v>78524.009999999995</v>
       </c>
-      <c r="E140" s="4"/>
+      <c r="E140" s="4" t="str">
+        <f>IF(D140&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F140" s="4">
         <v>0</v>
       </c>
-      <c r="G140" s="4"/>
+      <c r="G140" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H140" s="4">
         <v>31024.22</v>
       </c>
@@ -5566,8 +6988,12 @@
       <c r="J140" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K140" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>127063</v>
       </c>
@@ -5580,11 +7006,17 @@
       <c r="D141" s="4">
         <v>78524.009999999995</v>
       </c>
-      <c r="E141" s="4"/>
+      <c r="E141" s="4" t="str">
+        <f>IF(D141&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F141" s="4">
         <v>0</v>
       </c>
-      <c r="G141" s="4"/>
+      <c r="G141" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H141" s="4">
         <v>31024.22</v>
       </c>
@@ -5594,8 +7026,12 @@
       <c r="J141" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K141" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>127061</v>
       </c>
@@ -5608,11 +7044,17 @@
       <c r="D142" s="4">
         <v>78524.009999999995</v>
       </c>
-      <c r="E142" s="4"/>
+      <c r="E142" s="4" t="str">
+        <f>IF(D142&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F142" s="4">
         <v>0</v>
       </c>
-      <c r="G142" s="4"/>
+      <c r="G142" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H142" s="4">
         <v>31024.22</v>
       </c>
@@ -5622,8 +7064,12 @@
       <c r="J142" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K142" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>127060</v>
       </c>
@@ -5636,11 +7082,17 @@
       <c r="D143" s="4">
         <v>78524.009999999995</v>
       </c>
-      <c r="E143" s="4"/>
+      <c r="E143" s="4" t="str">
+        <f>IF(D143&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F143" s="4">
         <v>0</v>
       </c>
-      <c r="G143" s="4"/>
+      <c r="G143" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H143" s="4">
         <v>31024.23</v>
       </c>
@@ -5650,8 +7102,12 @@
       <c r="J143" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K143" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>127069</v>
       </c>
@@ -5664,11 +7120,17 @@
       <c r="D144" s="4">
         <v>78524.009999999995</v>
       </c>
-      <c r="E144" s="4"/>
+      <c r="E144" s="4" t="str">
+        <f>IF(D144&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F144" s="4">
         <v>0</v>
       </c>
-      <c r="G144" s="4"/>
+      <c r="G144" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H144" s="4">
         <v>31024.23</v>
       </c>
@@ -5678,8 +7140,12 @@
       <c r="J144" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K144" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>127068</v>
       </c>
@@ -5692,11 +7158,17 @@
       <c r="D145" s="4">
         <v>78524.009999999995</v>
       </c>
-      <c r="E145" s="4"/>
+      <c r="E145" s="4" t="str">
+        <f>IF(D145&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F145" s="4">
         <v>0</v>
       </c>
-      <c r="G145" s="4"/>
+      <c r="G145" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H145" s="4">
         <v>31809.46</v>
       </c>
@@ -5706,8 +7178,12 @@
       <c r="J145" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K145" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>127067</v>
       </c>
@@ -5720,11 +7196,17 @@
       <c r="D146" s="4">
         <v>78524</v>
       </c>
-      <c r="E146" s="4"/>
+      <c r="E146" s="4" t="str">
+        <f>IF(D146&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F146" s="4">
         <v>0</v>
       </c>
-      <c r="G146" s="4"/>
+      <c r="G146" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H146" s="4">
         <v>31024.22</v>
       </c>
@@ -5734,8 +7216,12 @@
       <c r="J146" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K146" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>127066</v>
       </c>
@@ -5748,11 +7234,17 @@
       <c r="D147" s="4">
         <v>78523.990000000005</v>
       </c>
-      <c r="E147" s="4"/>
+      <c r="E147" s="4" t="str">
+        <f>IF(D147&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F147" s="4">
         <v>0</v>
       </c>
-      <c r="G147" s="4"/>
+      <c r="G147" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H147" s="4">
         <v>31024.23</v>
       </c>
@@ -5762,8 +7254,12 @@
       <c r="J147" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K147" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>127064</v>
       </c>
@@ -5776,11 +7272,17 @@
       <c r="D148" s="4">
         <v>78454.06</v>
       </c>
-      <c r="E148" s="4"/>
+      <c r="E148" s="4" t="str">
+        <f>IF(D148&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F148" s="4">
         <v>0</v>
       </c>
-      <c r="G148" s="4"/>
+      <c r="G148" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H148" s="4">
         <v>31009.33</v>
       </c>
@@ -5790,8 +7292,12 @@
       <c r="J148" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K148" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>126809</v>
       </c>
@@ -5804,11 +7310,17 @@
       <c r="D149" s="4">
         <v>77532.06</v>
       </c>
-      <c r="E149" s="4"/>
+      <c r="E149" s="4" t="str">
+        <f>IF(D149&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F149" s="4">
         <v>0</v>
       </c>
-      <c r="G149" s="4"/>
+      <c r="G149" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H149" s="4">
         <v>31589.14</v>
       </c>
@@ -5818,8 +7330,12 @@
       <c r="J149" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K149" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>127072</v>
       </c>
@@ -5832,11 +7348,17 @@
       <c r="D150" s="4">
         <v>75670.16</v>
       </c>
-      <c r="E150" s="4"/>
+      <c r="E150" s="4" t="str">
+        <f>IF(D150&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F150" s="4">
         <v>0</v>
       </c>
-      <c r="G150" s="4"/>
+      <c r="G150" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H150" s="4">
         <v>29878.89</v>
       </c>
@@ -5846,8 +7368,12 @@
       <c r="J150" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K150" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>127070</v>
       </c>
@@ -5860,11 +7386,17 @@
       <c r="D151" s="4">
         <v>75513.05</v>
       </c>
-      <c r="E151" s="4"/>
+      <c r="E151" s="4" t="str">
+        <f>IF(D151&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F151" s="4">
         <v>0</v>
       </c>
-      <c r="G151" s="4"/>
+      <c r="G151" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H151" s="4">
         <v>31135.4</v>
       </c>
@@ -5874,8 +7406,12 @@
       <c r="J151" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K151" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>127093</v>
       </c>
@@ -5888,11 +7424,17 @@
       <c r="D152" s="4">
         <v>75248.05</v>
       </c>
-      <c r="E152" s="4"/>
+      <c r="E152" s="4" t="str">
+        <f>IF(D152&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F152" s="4">
         <v>0</v>
       </c>
-      <c r="G152" s="4"/>
+      <c r="G152" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H152" s="4">
         <v>31076.23</v>
       </c>
@@ -5902,8 +7444,12 @@
       <c r="J152" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K152" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>127156</v>
       </c>
@@ -5916,11 +7462,17 @@
       <c r="D153" s="4">
         <v>75248.039999999994</v>
       </c>
-      <c r="E153" s="4"/>
+      <c r="E153" s="4" t="str">
+        <f>IF(D153&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F153" s="4">
         <v>0</v>
       </c>
-      <c r="G153" s="4"/>
+      <c r="G153" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H153" s="4">
         <v>31077.47</v>
       </c>
@@ -5930,8 +7482,12 @@
       <c r="J153" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K153" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>128228</v>
       </c>
@@ -5944,11 +7500,17 @@
       <c r="D154" s="4">
         <v>75099.17</v>
       </c>
-      <c r="E154" s="4"/>
+      <c r="E154" s="4" t="str">
+        <f>IF(D154&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F154" s="4">
         <v>0</v>
       </c>
-      <c r="G154" s="4"/>
+      <c r="G154" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H154" s="4">
         <v>29687.08</v>
       </c>
@@ -5958,8 +7520,12 @@
       <c r="J154" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K154" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>128298</v>
       </c>
@@ -5972,11 +7538,17 @@
       <c r="D155" s="4">
         <v>74169.52</v>
       </c>
-      <c r="E155" s="4"/>
+      <c r="E155" s="4" t="str">
+        <f>IF(D155&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F155" s="4">
         <v>0</v>
       </c>
-      <c r="G155" s="4"/>
+      <c r="G155" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H155" s="4">
         <v>30075.8</v>
       </c>
@@ -5986,8 +7558,12 @@
       <c r="J155" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K155" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>127960</v>
       </c>
@@ -6000,11 +7576,17 @@
       <c r="D156" s="4">
         <v>74169.5</v>
       </c>
-      <c r="E156" s="4"/>
+      <c r="E156" s="4" t="str">
+        <f>IF(D156&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F156" s="4">
         <v>0</v>
       </c>
-      <c r="G156" s="4"/>
+      <c r="G156" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H156" s="4">
         <v>30817.49</v>
       </c>
@@ -6014,8 +7596,12 @@
       <c r="J156" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K156" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>128071</v>
       </c>
@@ -6028,11 +7614,17 @@
       <c r="D157" s="4">
         <v>72154.14</v>
       </c>
-      <c r="E157" s="4"/>
+      <c r="E157" s="4" t="str">
+        <f>IF(D157&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F157" s="4">
         <v>0</v>
       </c>
-      <c r="G157" s="4"/>
+      <c r="G157" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H157" s="4">
         <v>30359</v>
       </c>
@@ -6042,8 +7634,12 @@
       <c r="J157" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K157" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>128070</v>
       </c>
@@ -6056,11 +7652,17 @@
       <c r="D158" s="4">
         <v>72145.64</v>
       </c>
-      <c r="E158" s="4"/>
+      <c r="E158" s="4" t="str">
+        <f>IF(D158&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F158" s="4">
         <v>0</v>
       </c>
-      <c r="G158" s="4"/>
+      <c r="G158" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H158" s="4">
         <v>30357.01</v>
       </c>
@@ -6070,8 +7672,12 @@
       <c r="J158" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K158" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>128507</v>
       </c>
@@ -6084,11 +7690,17 @@
       <c r="D159" s="4">
         <v>72145.62</v>
       </c>
-      <c r="E159" s="4"/>
+      <c r="E159" s="4" t="str">
+        <f>IF(D159&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F159" s="4">
         <v>0</v>
       </c>
-      <c r="G159" s="4"/>
+      <c r="G159" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H159" s="4">
         <v>30357.01</v>
       </c>
@@ -6098,8 +7710,12 @@
       <c r="J159" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K159" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>128673</v>
       </c>
@@ -6112,11 +7728,17 @@
       <c r="D160" s="4">
         <v>71891.08</v>
       </c>
-      <c r="E160" s="4"/>
+      <c r="E160" s="4" t="str">
+        <f>IF(D160&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F160" s="4">
         <v>44.46</v>
       </c>
-      <c r="G160" s="4"/>
+      <c r="G160" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H160" s="4">
         <v>30313.24</v>
       </c>
@@ -6126,8 +7748,12 @@
       <c r="J160" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K160" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>128455</v>
       </c>
@@ -6140,11 +7766,17 @@
       <c r="D161" s="4">
         <v>71647.759999999995</v>
       </c>
-      <c r="E161" s="4"/>
+      <c r="E161" s="4" t="str">
+        <f>IF(D161&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F161" s="4">
         <v>0</v>
       </c>
-      <c r="G161" s="4"/>
+      <c r="G161" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H161" s="4">
         <v>30247.13</v>
       </c>
@@ -6154,8 +7786,12 @@
       <c r="J161" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K161" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>129182</v>
       </c>
@@ -6168,11 +7804,17 @@
       <c r="D162" s="4">
         <v>70122</v>
       </c>
-      <c r="E162" s="4"/>
+      <c r="E162" s="4" t="str">
+        <f>IF(D162&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F162" s="4">
         <v>0</v>
       </c>
-      <c r="G162" s="4"/>
+      <c r="G162" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H162" s="4">
         <v>29932.1</v>
       </c>
@@ -6182,8 +7824,12 @@
       <c r="J162" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K162" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>129186</v>
       </c>
@@ -6196,11 +7842,17 @@
       <c r="D163" s="4">
         <v>67917</v>
       </c>
-      <c r="E163" s="4"/>
+      <c r="E163" s="4" t="str">
+        <f>IF(D163&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F163" s="4">
         <v>0</v>
       </c>
-      <c r="G163" s="4"/>
+      <c r="G163" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H163" s="4">
         <v>29401.99</v>
       </c>
@@ -6210,8 +7862,12 @@
       <c r="J163" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K163" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>129187</v>
       </c>
@@ -6224,11 +7880,17 @@
       <c r="D164" s="4">
         <v>66964.67</v>
       </c>
-      <c r="E164" s="4"/>
+      <c r="E164" s="4" t="str">
+        <f>IF(D164&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F164" s="4">
         <v>0</v>
       </c>
-      <c r="G164" s="4"/>
+      <c r="G164" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H164" s="4">
         <v>29172.31</v>
       </c>
@@ -6238,8 +7900,12 @@
       <c r="J164" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K164" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>130805</v>
       </c>
@@ -6252,11 +7918,17 @@
       <c r="D165" s="4">
         <v>66964.66</v>
       </c>
-      <c r="E165" s="4"/>
+      <c r="E165" s="4" t="str">
+        <f>IF(D165&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F165" s="4">
         <v>0</v>
       </c>
-      <c r="G165" s="4"/>
+      <c r="G165" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H165" s="4">
         <v>29172.31</v>
       </c>
@@ -6266,8 +7938,12 @@
       <c r="J165" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K165" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>129252</v>
       </c>
@@ -6280,11 +7956,17 @@
       <c r="D166" s="4">
         <v>66964.639999999999</v>
       </c>
-      <c r="E166" s="4"/>
+      <c r="E166" s="4" t="str">
+        <f>IF(D166&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F166" s="4">
         <v>0</v>
       </c>
-      <c r="G166" s="4"/>
+      <c r="G166" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H166" s="4">
         <v>28502.66</v>
       </c>
@@ -6294,8 +7976,12 @@
       <c r="J166" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K166" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>129375</v>
       </c>
@@ -6308,11 +7994,17 @@
       <c r="D167" s="4">
         <v>66964.63</v>
       </c>
-      <c r="E167" s="4"/>
+      <c r="E167" s="4" t="str">
+        <f>IF(D167&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F167" s="4">
         <v>0</v>
       </c>
-      <c r="G167" s="4"/>
+      <c r="G167" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H167" s="4">
         <v>29172.31</v>
       </c>
@@ -6322,8 +8014,12 @@
       <c r="J167" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K167" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>129873</v>
       </c>
@@ -6336,11 +8032,17 @@
       <c r="D168" s="4">
         <v>66964.63</v>
       </c>
-      <c r="E168" s="4"/>
+      <c r="E168" s="4" t="str">
+        <f>IF(D168&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F168" s="4">
         <v>0</v>
       </c>
-      <c r="G168" s="4"/>
+      <c r="G168" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H168" s="4">
         <v>29172.31</v>
       </c>
@@ -6350,8 +8052,12 @@
       <c r="J168" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K168" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>131450</v>
       </c>
@@ -6364,11 +8070,17 @@
       <c r="D169" s="4">
         <v>66964.62</v>
       </c>
-      <c r="E169" s="4"/>
+      <c r="E169" s="4" t="str">
+        <f>IF(D169&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F169" s="4">
         <v>0</v>
       </c>
-      <c r="G169" s="4"/>
+      <c r="G169" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H169" s="4">
         <v>29172.31</v>
       </c>
@@ -6378,8 +8090,12 @@
       <c r="J169" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K169" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>130536</v>
       </c>
@@ -6392,11 +8108,17 @@
       <c r="D170" s="4">
         <v>66964.62</v>
       </c>
-      <c r="E170" s="4"/>
+      <c r="E170" s="4" t="str">
+        <f>IF(D170&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F170" s="4">
         <v>0</v>
       </c>
-      <c r="G170" s="4"/>
+      <c r="G170" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H170" s="4">
         <v>29172.31</v>
       </c>
@@ -6406,8 +8128,12 @@
       <c r="J170" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K170" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>130806</v>
       </c>
@@ -6420,11 +8146,17 @@
       <c r="D171" s="4">
         <v>66964.62</v>
       </c>
-      <c r="E171" s="4"/>
+      <c r="E171" s="4" t="str">
+        <f>IF(D171&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F171" s="4">
         <v>0</v>
       </c>
-      <c r="G171" s="4"/>
+      <c r="G171" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H171" s="4">
         <v>29172.31</v>
       </c>
@@ -6434,8 +8166,12 @@
       <c r="J171" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K171" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>130807</v>
       </c>
@@ -6448,11 +8184,17 @@
       <c r="D172" s="4">
         <v>66964.61</v>
       </c>
-      <c r="E172" s="4"/>
+      <c r="E172" s="4" t="str">
+        <f>IF(D172&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F172" s="4">
         <v>0</v>
       </c>
-      <c r="G172" s="4"/>
+      <c r="G172" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H172" s="4">
         <v>29172.31</v>
       </c>
@@ -6462,8 +8204,12 @@
       <c r="J172" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K172" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>130979</v>
       </c>
@@ -6476,11 +8222,17 @@
       <c r="D173" s="4">
         <v>66964.61</v>
       </c>
-      <c r="E173" s="4"/>
+      <c r="E173" s="4" t="str">
+        <f>IF(D173&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F173" s="4">
         <v>0</v>
       </c>
-      <c r="G173" s="4"/>
+      <c r="G173" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H173" s="4">
         <v>29172.31</v>
       </c>
@@ -6490,8 +8242,12 @@
       <c r="J173" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K173" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>130809</v>
       </c>
@@ -6504,11 +8260,17 @@
       <c r="D174" s="4">
         <v>66963.14</v>
       </c>
-      <c r="E174" s="4"/>
+      <c r="E174" s="4" t="str">
+        <f>IF(D174&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F174" s="4">
         <v>0</v>
       </c>
-      <c r="G174" s="4"/>
+      <c r="G174" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H174" s="4">
         <v>29170.16</v>
       </c>
@@ -6518,8 +8280,12 @@
       <c r="J174" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K174" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>130808</v>
       </c>
@@ -6532,11 +8298,17 @@
       <c r="D175" s="4">
         <v>66963.14</v>
       </c>
-      <c r="E175" s="4"/>
+      <c r="E175" s="4" t="str">
+        <f>IF(D175&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F175" s="4">
         <v>0</v>
       </c>
-      <c r="G175" s="4"/>
+      <c r="G175" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H175" s="4">
         <v>29170.16</v>
       </c>
@@ -6546,8 +8318,12 @@
       <c r="J175" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K175" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>130812</v>
       </c>
@@ -6560,11 +8336,17 @@
       <c r="D176" s="4">
         <v>66962.210000000006</v>
       </c>
-      <c r="E176" s="4"/>
+      <c r="E176" s="4" t="str">
+        <f>IF(D176&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F176" s="4">
         <v>0</v>
       </c>
-      <c r="G176" s="4"/>
+      <c r="G176" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H176" s="4">
         <v>29171.77</v>
       </c>
@@ -6574,8 +8356,12 @@
       <c r="J176" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K176" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>130811</v>
       </c>
@@ -6588,11 +8374,17 @@
       <c r="D177" s="4">
         <v>66867.070000000007</v>
       </c>
-      <c r="E177" s="4"/>
+      <c r="E177" s="4" t="str">
+        <f>IF(D177&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F177" s="4">
         <v>0</v>
       </c>
-      <c r="G177" s="4"/>
+      <c r="G177" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H177" s="4">
         <v>29130.53</v>
       </c>
@@ -6602,8 +8394,12 @@
       <c r="J177" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K177" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>130810</v>
       </c>
@@ -6616,11 +8412,17 @@
       <c r="D178" s="4">
         <v>66803.320000000007</v>
       </c>
-      <c r="E178" s="4"/>
+      <c r="E178" s="4" t="str">
+        <f>IF(D178&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F178" s="4">
         <v>0</v>
       </c>
-      <c r="G178" s="4"/>
+      <c r="G178" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H178" s="4">
         <v>28623.89</v>
       </c>
@@ -6630,8 +8432,12 @@
       <c r="J178" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K178" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>130814</v>
       </c>
@@ -6644,11 +8450,17 @@
       <c r="D179" s="4">
         <v>65663.039999999994</v>
       </c>
-      <c r="E179" s="4"/>
+      <c r="E179" s="4" t="str">
+        <f>IF(D179&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F179" s="4">
         <v>0</v>
       </c>
-      <c r="G179" s="4"/>
+      <c r="G179" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H179" s="4">
         <v>27955.87</v>
       </c>
@@ -6658,8 +8470,12 @@
       <c r="J179" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K179" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>130813</v>
       </c>
@@ -6672,11 +8488,17 @@
       <c r="D180" s="4">
         <v>64777.71</v>
       </c>
-      <c r="E180" s="4"/>
+      <c r="E180" s="4" t="str">
+        <f>IF(D180&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F180" s="4">
         <v>0</v>
       </c>
-      <c r="G180" s="4"/>
+      <c r="G180" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H180" s="4">
         <v>27829.919999999998</v>
       </c>
@@ -6686,8 +8508,12 @@
       <c r="J180" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K180" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>130819</v>
       </c>
@@ -6700,11 +8526,17 @@
       <c r="D181" s="4">
         <v>64414.28</v>
       </c>
-      <c r="E181" s="4"/>
+      <c r="E181" s="4" t="str">
+        <f>IF(D181&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F181" s="4">
         <v>0</v>
       </c>
-      <c r="G181" s="4"/>
+      <c r="G181" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H181" s="4">
         <v>27986.23</v>
       </c>
@@ -6714,8 +8546,12 @@
       <c r="J181" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K181" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>130818</v>
       </c>
@@ -6728,11 +8564,17 @@
       <c r="D182" s="4">
         <v>61607</v>
       </c>
-      <c r="E182" s="4"/>
+      <c r="E182" s="4" t="str">
+        <f>IF(D182&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F182" s="4">
         <v>0</v>
       </c>
-      <c r="G182" s="4"/>
+      <c r="G182" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H182" s="4">
         <v>27958.25</v>
       </c>
@@ -6742,8 +8584,12 @@
       <c r="J182" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K182" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>130817</v>
       </c>
@@ -6756,11 +8602,17 @@
       <c r="D183" s="4">
         <v>61374.87</v>
       </c>
-      <c r="E183" s="4"/>
+      <c r="E183" s="4" t="str">
+        <f>IF(D183&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F183" s="4">
         <v>0</v>
       </c>
-      <c r="G183" s="4"/>
+      <c r="G183" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H183" s="4">
         <v>27906.43</v>
       </c>
@@ -6770,8 +8622,12 @@
       <c r="J183" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K183" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>130860</v>
       </c>
@@ -6784,11 +8640,17 @@
       <c r="D184" s="4">
         <v>61374.82</v>
       </c>
-      <c r="E184" s="4"/>
+      <c r="E184" s="4" t="str">
+        <f>IF(D184&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F184" s="4">
         <v>0</v>
       </c>
-      <c r="G184" s="4"/>
+      <c r="G184" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H184" s="4">
         <v>27906.42</v>
       </c>
@@ -6798,8 +8660,12 @@
       <c r="J184" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K184" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>130990</v>
       </c>
@@ -6812,11 +8678,17 @@
       <c r="D185" s="4">
         <v>61374.82</v>
       </c>
-      <c r="E185" s="4"/>
+      <c r="E185" s="4" t="str">
+        <f>IF(D185&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F185" s="4">
         <v>339.45</v>
       </c>
-      <c r="G185" s="4"/>
+      <c r="G185" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H185" s="4">
         <v>27909.81</v>
       </c>
@@ -6826,8 +8698,12 @@
       <c r="J185" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K185" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>130787</v>
       </c>
@@ -6840,11 +8716,17 @@
       <c r="D186" s="4">
         <v>61374.81</v>
       </c>
-      <c r="E186" s="4"/>
+      <c r="E186" s="4" t="str">
+        <f>IF(D186&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F186" s="4">
         <v>0</v>
       </c>
-      <c r="G186" s="4"/>
+      <c r="G186" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H186" s="4">
         <v>27906.42</v>
       </c>
@@ -6854,8 +8736,12 @@
       <c r="J186" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K186" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>128192</v>
       </c>
@@ -6868,11 +8754,17 @@
       <c r="D187" s="4">
         <v>61374.8</v>
       </c>
-      <c r="E187" s="4"/>
+      <c r="E187" s="4" t="str">
+        <f>IF(D187&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F187" s="4">
         <v>0</v>
       </c>
-      <c r="G187" s="4"/>
+      <c r="G187" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H187" s="4">
         <v>27906.42</v>
       </c>
@@ -6882,8 +8774,12 @@
       <c r="J187" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K187" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>131514</v>
       </c>
@@ -6896,11 +8792,17 @@
       <c r="D188" s="4">
         <v>61374.8</v>
       </c>
-      <c r="E188" s="4"/>
+      <c r="E188" s="4" t="str">
+        <f>IF(D188&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F188" s="4">
         <v>0</v>
       </c>
-      <c r="G188" s="4"/>
+      <c r="G188" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H188" s="4">
         <v>27906.42</v>
       </c>
@@ -6910,8 +8812,12 @@
       <c r="J188" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K188" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>131792</v>
       </c>
@@ -6924,11 +8830,17 @@
       <c r="D189" s="4">
         <v>61373.29</v>
       </c>
-      <c r="E189" s="4"/>
+      <c r="E189" s="4" t="str">
+        <f>IF(D189&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F189" s="4">
         <v>0</v>
       </c>
-      <c r="G189" s="4"/>
+      <c r="G189" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H189" s="4">
         <v>27905.72</v>
       </c>
@@ -6938,8 +8850,12 @@
       <c r="J189" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K189" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>131845</v>
       </c>
@@ -6952,11 +8868,17 @@
       <c r="D190" s="4">
         <v>61321.96</v>
       </c>
-      <c r="E190" s="4"/>
+      <c r="E190" s="4" t="str">
+        <f>IF(D190&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F190" s="4">
         <v>0</v>
       </c>
-      <c r="G190" s="4"/>
+      <c r="G190" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H190" s="4">
         <v>27881.3</v>
       </c>
@@ -6966,8 +8888,12 @@
       <c r="J190" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K190" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>132534</v>
       </c>
@@ -6980,11 +8906,17 @@
       <c r="D191" s="4">
         <v>61231.17</v>
       </c>
-      <c r="E191" s="4"/>
+      <c r="E191" s="4" t="str">
+        <f>IF(D191&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F191" s="4">
         <v>0</v>
       </c>
-      <c r="G191" s="4"/>
+      <c r="G191" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H191" s="4">
         <v>27854.37</v>
       </c>
@@ -6994,8 +8926,12 @@
       <c r="J191" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K191" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>132606</v>
       </c>
@@ -7008,11 +8944,17 @@
       <c r="D192" s="4">
         <v>59869.83</v>
       </c>
-      <c r="E192" s="4"/>
+      <c r="E192" s="4" t="str">
+        <f>IF(D192&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F192" s="4">
         <v>0</v>
       </c>
-      <c r="G192" s="4"/>
+      <c r="G192" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H192" s="4">
         <v>27553.759999999998</v>
       </c>
@@ -7022,8 +8964,12 @@
       <c r="J192" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K192" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>132682</v>
       </c>
@@ -7036,11 +8982,17 @@
       <c r="D193" s="4">
         <v>59736.36</v>
       </c>
-      <c r="E193" s="4"/>
+      <c r="E193" s="4" t="str">
+        <f>IF(D193&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F193" s="4">
         <v>0</v>
       </c>
-      <c r="G193" s="4"/>
+      <c r="G193" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H193" s="4">
         <v>15161.73</v>
       </c>
@@ -7050,8 +9002,12 @@
       <c r="J193" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K193" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>132683</v>
       </c>
@@ -7064,11 +9020,17 @@
       <c r="D194" s="4">
         <v>59243.32</v>
       </c>
-      <c r="E194" s="4"/>
+      <c r="E194" s="4" t="str">
+        <f>IF(D194&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F194" s="4">
         <v>0</v>
       </c>
-      <c r="G194" s="4"/>
+      <c r="G194" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H194" s="4">
         <v>27413.919999999998</v>
       </c>
@@ -7078,8 +9040,12 @@
       <c r="J194" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K194" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>132587</v>
       </c>
@@ -7092,11 +9058,17 @@
       <c r="D195" s="4">
         <v>59243.3</v>
       </c>
-      <c r="E195" s="4"/>
+      <c r="E195" s="4" t="str">
+        <f>IF(D195&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F195" s="4">
         <v>0</v>
       </c>
-      <c r="G195" s="4"/>
+      <c r="G195" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H195" s="4">
         <v>27413.919999999998</v>
       </c>
@@ -7106,8 +9078,12 @@
       <c r="J195" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K195" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>132684</v>
       </c>
@@ -7120,11 +9096,17 @@
       <c r="D196" s="4">
         <v>58671.65</v>
       </c>
-      <c r="E196" s="4"/>
+      <c r="E196" s="4" t="str">
+        <f>IF(D196&gt;=V$4,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
       <c r="F196" s="4">
         <v>0</v>
       </c>
-      <c r="G196" s="4"/>
+      <c r="G196" s="4" t="b">
+        <f>AND(Table1[[#This Row],[BasePay]]&gt;V$4,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
       <c r="H196" s="4">
         <v>27146.37</v>
       </c>
@@ -7134,8 +9116,12 @@
       <c r="J196" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K196" s="10" t="b">
+        <f>OR(Table1[[#This Row],[BasePay]]&gt;100000,Table1[[#This Row],[Benefits]]&gt;35000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>132686</v>
       </c>
@@ -7148,8 +9134,9 @@
       <c r="H197" s="4"/>
       <c r="I197" s="4"/>
       <c r="J197" s="3"/>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K197" s="3"/>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>132685</v>
       </c>
@@ -7162,8 +9149,9 @@
       <c r="H198" s="4"/>
       <c r="I198" s="4"/>
       <c r="J198" s="3"/>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K198" s="3"/>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>132688</v>
       </c>
@@ -7176,8 +9164,9 @@
       <c r="H199" s="4"/>
       <c r="I199" s="4"/>
       <c r="J199" s="3"/>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K199" s="3"/>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>132705</v>
       </c>
@@ -7190,8 +9179,9 @@
       <c r="H200" s="4"/>
       <c r="I200" s="4"/>
       <c r="J200" s="3"/>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K200" s="3"/>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>132741</v>
       </c>
@@ -7204,8 +9194,9 @@
       <c r="H201" s="4"/>
       <c r="I201" s="4"/>
       <c r="J201" s="3"/>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K201" s="3"/>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>133875</v>
       </c>
@@ -7218,8 +9209,9 @@
       <c r="H202" s="4"/>
       <c r="I202" s="4"/>
       <c r="J202" s="3"/>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K202" s="3"/>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>133304</v>
       </c>
@@ -7232,8 +9224,9 @@
       <c r="H203" s="4"/>
       <c r="I203" s="4"/>
       <c r="J203" s="3"/>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K203" s="3"/>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>136181</v>
       </c>
@@ -7246,8 +9239,9 @@
       <c r="H204" s="4"/>
       <c r="I204" s="4"/>
       <c r="J204" s="3"/>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K204" s="3"/>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>133619</v>
       </c>
@@ -7260,8 +9254,9 @@
       <c r="H205" s="4"/>
       <c r="I205" s="4"/>
       <c r="J205" s="3"/>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K205" s="3"/>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>133620</v>
       </c>
@@ -7274,8 +9269,9 @@
       <c r="H206" s="4"/>
       <c r="I206" s="4"/>
       <c r="J206" s="3"/>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K206" s="3"/>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>137786</v>
       </c>
@@ -7288,8 +9284,9 @@
       <c r="H207" s="4"/>
       <c r="I207" s="4"/>
       <c r="J207" s="3"/>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K207" s="3"/>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>137832</v>
       </c>
@@ -7302,8 +9299,9 @@
       <c r="H208" s="4"/>
       <c r="I208" s="4"/>
       <c r="J208" s="3"/>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K208" s="3"/>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>133842</v>
       </c>
@@ -7316,8 +9314,9 @@
       <c r="H209" s="4"/>
       <c r="I209" s="4"/>
       <c r="J209" s="3"/>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K209" s="3"/>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>134842</v>
       </c>
@@ -7330,8 +9329,9 @@
       <c r="H210" s="4"/>
       <c r="I210" s="4"/>
       <c r="J210" s="3"/>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K210" s="3"/>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>135386</v>
       </c>
@@ -7344,8 +9344,9 @@
       <c r="H211" s="4"/>
       <c r="I211" s="4"/>
       <c r="J211" s="3"/>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K211" s="3"/>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>136330</v>
       </c>
@@ -7358,8 +9359,9 @@
       <c r="H212" s="4"/>
       <c r="I212" s="4"/>
       <c r="J212" s="3"/>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K212" s="3"/>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>135864</v>
       </c>
@@ -7372,8 +9374,9 @@
       <c r="H213" s="4"/>
       <c r="I213" s="4"/>
       <c r="J213" s="3"/>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K213" s="3"/>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>136616</v>
       </c>
@@ -7386,8 +9389,9 @@
       <c r="H214" s="4"/>
       <c r="I214" s="4"/>
       <c r="J214" s="3"/>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K214" s="3"/>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>138836</v>
       </c>
@@ -7400,8 +9404,9 @@
       <c r="H215" s="4"/>
       <c r="I215" s="4"/>
       <c r="J215" s="3"/>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K215" s="3"/>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>137231</v>
       </c>
@@ -7414,8 +9419,9 @@
       <c r="H216" s="4"/>
       <c r="I216" s="4"/>
       <c r="J216" s="3"/>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K216" s="3"/>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>137706</v>
       </c>
@@ -7428,8 +9434,9 @@
       <c r="H217" s="4"/>
       <c r="I217" s="4"/>
       <c r="J217" s="3"/>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K217" s="3"/>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>139420</v>
       </c>
@@ -7442,8 +9449,9 @@
       <c r="H218" s="4"/>
       <c r="I218" s="4"/>
       <c r="J218" s="3"/>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K218" s="3"/>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>138611</v>
       </c>
@@ -7456,8 +9464,9 @@
       <c r="H219" s="4"/>
       <c r="I219" s="4"/>
       <c r="J219" s="3"/>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K219" s="3"/>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>138494</v>
       </c>
@@ -7470,8 +9479,9 @@
       <c r="H220" s="4"/>
       <c r="I220" s="4"/>
       <c r="J220" s="3"/>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K220" s="3"/>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>138774</v>
       </c>
@@ -7484,8 +9494,9 @@
       <c r="H221" s="4"/>
       <c r="I221" s="4"/>
       <c r="J221" s="3"/>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K221" s="3"/>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>140105</v>
       </c>
@@ -7498,8 +9509,9 @@
       <c r="H222" s="4"/>
       <c r="I222" s="4"/>
       <c r="J222" s="3"/>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K222" s="3"/>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>140200</v>
       </c>
@@ -7512,8 +9524,9 @@
       <c r="H223" s="4"/>
       <c r="I223" s="4"/>
       <c r="J223" s="3"/>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K223" s="3"/>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>139128</v>
       </c>
@@ -7526,8 +9539,9 @@
       <c r="H224" s="4"/>
       <c r="I224" s="4"/>
       <c r="J224" s="3"/>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K224" s="3"/>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>140448</v>
       </c>
@@ -7540,8 +9554,9 @@
       <c r="H225" s="4"/>
       <c r="I225" s="4"/>
       <c r="J225" s="3"/>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K225" s="3"/>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>140583</v>
       </c>
@@ -7554,8 +9569,9 @@
       <c r="H226" s="4"/>
       <c r="I226" s="4"/>
       <c r="J226" s="3"/>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K226" s="3"/>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>140793</v>
       </c>
@@ -7568,8 +9584,9 @@
       <c r="H227" s="4"/>
       <c r="I227" s="4"/>
       <c r="J227" s="3"/>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K227" s="3"/>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>139138</v>
       </c>
@@ -7582,8 +9599,9 @@
       <c r="H228" s="4"/>
       <c r="I228" s="4"/>
       <c r="J228" s="3"/>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K228" s="3"/>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>138421</v>
       </c>
@@ -7596,8 +9614,9 @@
       <c r="H229" s="4"/>
       <c r="I229" s="4"/>
       <c r="J229" s="3"/>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K229" s="3"/>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>141140</v>
       </c>
@@ -7610,8 +9629,9 @@
       <c r="H230" s="4"/>
       <c r="I230" s="4"/>
       <c r="J230" s="3"/>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K230" s="3"/>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>140093</v>
       </c>
@@ -7624,8 +9644,9 @@
       <c r="H231" s="4"/>
       <c r="I231" s="4"/>
       <c r="J231" s="3"/>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K231" s="3"/>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>140522</v>
       </c>
@@ -7638,8 +9659,9 @@
       <c r="H232" s="4"/>
       <c r="I232" s="4"/>
       <c r="J232" s="3"/>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K232" s="3"/>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>141085</v>
       </c>
@@ -7652,8 +9674,9 @@
       <c r="H233" s="4"/>
       <c r="I233" s="4"/>
       <c r="J233" s="3"/>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K233" s="3"/>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>141680</v>
       </c>
@@ -7666,8 +9689,9 @@
       <c r="H234" s="4"/>
       <c r="I234" s="4"/>
       <c r="J234" s="3"/>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K234" s="3"/>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>140640</v>
       </c>
@@ -7680,28 +9704,29 @@
       <c r="H235" s="4"/>
       <c r="I235" s="4"/>
       <c r="J235" s="3"/>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K235" s="3"/>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>140639</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>140638</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>140644</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>140670</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>140671</v>
       </c>
